--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A637F1-07A1-45AE-A54A-DF8C46588FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92636D27-E7DF-4759-B3FC-F5FEB5EF8786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$413</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="654">
   <si>
     <t>1С</t>
   </si>
@@ -1951,6 +1951,51 @@
   </si>
   <si>
     <t>БЕКОН ДЛЯ КУЛИНАРИИ с/к с/н мгс 1*2_HRC</t>
+  </si>
+  <si>
+    <t>7059 ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7066 СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7073 МОЛОЧ.ПРЕМИУМ ПМ сос п/о в/у 1/350_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7092 БЕКОН Папа может с/к с/н в/у 1/140_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6411 ВЕТЧ.РУБЛЕНАЯ ПМ в/у срез 0.3кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6962 МЯСНИКС ПМ сос б/о мгс 1/160 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6987 СУПЕР СЫТНЫЕ ПМ сос п/о мгс 0.6кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.РУБЛЕНАЯ ПМ в/у срез 0.3кг 6шт.</t>
+  </si>
+  <si>
+    <t>МЯСНИКС ПМ сос б/о мгс 1/160 10шт.</t>
+  </si>
+  <si>
+    <t>СУПЕР СЫТНЫЕ ПМ сос п/о мгс 0.6кг 8шт.</t>
+  </si>
+  <si>
+    <t>7070 СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7077 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7080 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт. 50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7082 СЛИВОЧНЫЕ ПМ сос п/о мгс 1.5*4_50с  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2305,11 +2350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,222 +3520,216 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>649</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022376955</v>
+        <v>1001022377070</v>
       </c>
       <c r="C105" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>256</v>
+        <v>617</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022246661</v>
+        <v>1001022377070</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="B108" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B110" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B111" s="3">
-        <v>6606</v>
+        <v>1001022246713</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" s="3">
-        <v>1001035326217</v>
+        <v>1001025166241</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B113" s="3">
-        <v>1001303636301</v>
+        <v>6606</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B114" s="3">
-        <v>1001303636302</v>
+        <v>1001035326217</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B115" s="3">
-        <v>1001305196215</v>
+        <v>1001303636301</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B116" s="3">
-        <v>1001301876212</v>
+        <v>1001303636302</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" s="3">
-        <v>1001301876213</v>
+        <v>1001305196215</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B118" s="3">
-        <v>1001303636302</v>
+        <v>1001301876212</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B119" s="3">
-        <v>6645</v>
+        <v>1001301876213</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B120" s="3">
-        <v>1001225416228</v>
+        <v>1001303636302</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B121" s="3">
-        <v>6225</v>
+        <v>6645</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B122" s="3">
-        <v>1001022377066</v>
+        <v>1001225416228</v>
       </c>
       <c r="C122" t="s">
-        <v>608</v>
-      </c>
-      <c r="E122" t="s">
-        <v>633</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="B123" s="3">
-        <v>1001022377066</v>
+        <v>6225</v>
       </c>
       <c r="C123" t="s">
-        <v>608</v>
-      </c>
-      <c r="E123" t="s">
-        <v>633</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B124" s="3">
         <v>1001022377066</v>
@@ -3704,24 +3743,27 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B125" s="3">
-        <v>3297</v>
+        <v>1001022377066</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>608</v>
+      </c>
+      <c r="E125" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C126" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E126" t="s">
         <v>633</v>
@@ -3729,511 +3771,514 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022467080</v>
+        <v>3297</v>
       </c>
       <c r="C127" t="s">
-        <v>610</v>
-      </c>
-      <c r="E127" t="s">
-        <v>633</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="B128" s="3">
-        <v>1001021966602</v>
+        <v>1001022467080</v>
       </c>
       <c r="C128" t="s">
-        <v>294</v>
+        <v>610</v>
+      </c>
+      <c r="E128" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B129" s="3">
-        <v>6233</v>
+        <v>1001022467080</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>610</v>
+      </c>
+      <c r="E129" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>652</v>
       </c>
       <c r="B130" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C130" t="s">
-        <v>451</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>497</v>
+        <v>629</v>
       </c>
       <c r="B131" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C131" t="s">
-        <v>451</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="B132" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B133" s="3">
-        <v>1001012816341</v>
+        <v>1001021966602</v>
       </c>
       <c r="C133" t="s">
-        <v>451</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B134" s="3">
-        <v>6750</v>
+        <v>6233</v>
       </c>
       <c r="C134" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3">
-        <v>6751</v>
+        <v>1001012816341</v>
       </c>
       <c r="C135" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>185</v>
+        <v>497</v>
       </c>
       <c r="B136" s="3">
-        <v>5982</v>
+        <v>1001012816341</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="B137" s="3">
-        <v>1001022657074</v>
+        <v>1001012816341</v>
       </c>
       <c r="C137" t="s">
-        <v>635</v>
-      </c>
-      <c r="E137" t="s">
-        <v>633</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>464</v>
+        <v>182</v>
       </c>
       <c r="B138" s="3">
-        <v>1001022657074</v>
+        <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>635</v>
-      </c>
-      <c r="E138" t="s">
-        <v>633</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B139" s="3">
-        <v>1001022656854</v>
+        <v>6750</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B140" s="3">
-        <v>1001094966025</v>
+        <v>6751</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B141" s="3">
-        <v>6025</v>
+        <v>5982</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>192</v>
+        <v>563</v>
       </c>
       <c r="B142" s="3">
-        <v>6221</v>
+        <v>1001022657074</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>635</v>
+      </c>
+      <c r="E142" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>194</v>
+        <v>464</v>
       </c>
       <c r="B143" s="3">
-        <v>1001205376221</v>
+        <v>1001022657074</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>635</v>
+      </c>
+      <c r="E143" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B144" s="3">
-        <v>1001022373812</v>
+        <v>1001022656854</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B145" s="3">
-        <v>1001100606827</v>
+        <v>1001094966025</v>
       </c>
       <c r="C145" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="B146" s="3">
-        <v>1001100606827</v>
+        <v>6025</v>
       </c>
       <c r="C146" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B147" s="3">
-        <v>1001100616826</v>
+        <v>6221</v>
       </c>
       <c r="C147" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="B148" s="3">
-        <v>1001100616826</v>
+        <v>1001205376221</v>
       </c>
       <c r="C148" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B149" s="3">
-        <v>1001100626828</v>
+        <v>1001022373812</v>
       </c>
       <c r="C149" t="s">
-        <v>341</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="B150" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C150" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="B151" s="3">
-        <v>1001035026308</v>
+        <v>1001100606827</v>
       </c>
       <c r="C151" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>567</v>
+        <v>198</v>
       </c>
       <c r="B152" s="3">
-        <v>1001014486159</v>
+        <v>1001100616826</v>
       </c>
       <c r="C152" t="s">
-        <v>568</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>202</v>
+        <v>352</v>
       </c>
       <c r="B153" s="3">
-        <v>1001014486159</v>
+        <v>1001100616826</v>
       </c>
       <c r="C153" t="s">
-        <v>203</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B154" s="3">
-        <v>1001035326217</v>
+        <v>1001100626828</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>515</v>
+        <v>353</v>
       </c>
       <c r="B155" s="3">
-        <v>1001012426220</v>
+        <v>1001100626828</v>
       </c>
       <c r="C155" t="s">
-        <v>206</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B156" s="3">
-        <v>1001012426220</v>
+        <v>1001035026308</v>
       </c>
       <c r="C156" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>207</v>
+        <v>567</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022466236</v>
+        <v>1001014486159</v>
       </c>
       <c r="C157" t="s">
-        <v>208</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B158" s="3">
-        <v>1001021966602</v>
+        <v>1001014486159</v>
       </c>
       <c r="C158" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B159" s="3">
-        <v>1001022296656</v>
+        <v>1001035326217</v>
       </c>
       <c r="C159" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>213</v>
+        <v>515</v>
       </c>
       <c r="B160" s="3">
-        <v>1001304506684</v>
+        <v>1001012426220</v>
       </c>
       <c r="C160" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B161" s="3">
-        <v>1001301876697</v>
+        <v>1001012426220</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022246713</v>
+        <v>1001022466236</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B163" s="3">
-        <v>1001020846751</v>
+        <v>1001021966602</v>
       </c>
       <c r="C163" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022725819</v>
+        <v>1001022296656</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B165" s="3">
-        <v>1001012825337</v>
+        <v>1001304506684</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B166" s="3">
-        <v>1001012815336</v>
+        <v>1001301876697</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B167" s="3">
-        <v>1001234146448</v>
+        <v>1001022246713</v>
       </c>
       <c r="C167" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C168" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B169" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C169" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B170" s="3">
-        <v>1001301876213</v>
+        <v>1001012825337</v>
       </c>
       <c r="C170" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B171" s="3">
-        <v>1001035026308</v>
+        <v>1001012815336</v>
       </c>
       <c r="C171" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B172" s="3">
         <v>1001234146448</v>
@@ -4244,2552 +4289,2684 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B173" s="3">
-        <v>1001201976454</v>
+        <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B174" s="3">
-        <v>1001025176475</v>
+        <v>1001092676027</v>
       </c>
       <c r="C174" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B175" s="3">
-        <v>1001012456498</v>
+        <v>1001301876213</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B176" s="3">
-        <v>1001010036596</v>
+        <v>1001035026308</v>
       </c>
       <c r="C176" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>577</v>
+        <v>233</v>
       </c>
       <c r="B177" s="3">
-        <v>1001033856608</v>
+        <v>1001234146448</v>
       </c>
       <c r="C177" t="s">
-        <v>569</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>571</v>
+        <v>235</v>
       </c>
       <c r="B178" s="3">
-        <v>1001033856608</v>
+        <v>1001201976454</v>
       </c>
       <c r="C178" t="s">
-        <v>569</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>578</v>
+        <v>236</v>
       </c>
       <c r="B179" s="3">
-        <v>1001033856609</v>
+        <v>1001025176475</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B180" s="3">
-        <v>1001033856609</v>
+        <v>1001012456498</v>
       </c>
       <c r="C180" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B181" s="3">
-        <v>1001302276666</v>
+        <v>1001010036596</v>
       </c>
       <c r="C181" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>245</v>
+        <v>577</v>
       </c>
       <c r="B182" s="3">
-        <v>1001093345495</v>
+        <v>1001033856608</v>
       </c>
       <c r="C182" t="s">
-        <v>452</v>
+        <v>569</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>247</v>
+        <v>571</v>
       </c>
       <c r="B183" s="3">
-        <v>6550</v>
+        <v>1001033856608</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>249</v>
+        <v>578</v>
       </c>
       <c r="B184" s="3">
-        <v>1001304506684</v>
+        <v>1001033856609</v>
       </c>
       <c r="C184" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B185" s="3">
-        <v>1001010113248</v>
+        <v>1001033856609</v>
       </c>
       <c r="C185" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="B186" s="3">
-        <v>1001063926780</v>
+        <v>1001302276666</v>
       </c>
       <c r="C186" t="s">
-        <v>426</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B187" s="3">
-        <v>6586</v>
+        <v>1001093345495</v>
       </c>
       <c r="C187" t="s">
-        <v>253</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303636467</v>
+        <v>6550</v>
       </c>
       <c r="C188" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B189" s="3">
-        <v>1001304496701</v>
+        <v>1001304506684</v>
       </c>
       <c r="C189" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B190" s="3">
-        <v>6144</v>
+        <v>1001010113248</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="B191" s="3">
-        <v>1001022725819</v>
+        <v>1001063926780</v>
       </c>
       <c r="C191" t="s">
-        <v>222</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B192" s="3">
-        <v>1001022373812</v>
+        <v>6586</v>
       </c>
       <c r="C192" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B193" s="3">
-        <v>1001024906062</v>
+        <v>1001303636467</v>
       </c>
       <c r="C193" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B194" s="3">
-        <v>1001300386683</v>
+        <v>1001304496701</v>
       </c>
       <c r="C194" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B195" s="3">
-        <v>1001303986689</v>
+        <v>6144</v>
       </c>
       <c r="C195" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B196" s="3">
-        <v>1001303056692</v>
+        <v>1001022725819</v>
       </c>
       <c r="C196" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B197" s="3">
-        <v>1001301876697</v>
+        <v>1001022373812</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B198" s="3">
-        <v>1001302276666</v>
+        <v>1001024906062</v>
       </c>
       <c r="C198" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B199" s="3">
-        <v>1001012634574</v>
+        <v>1001300386683</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B200" s="3">
-        <v>1001092485452</v>
+        <v>1001303986689</v>
       </c>
       <c r="C200" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B201" s="3">
-        <v>1001020966144</v>
+        <v>1001303056692</v>
       </c>
       <c r="C201" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B202" s="3">
-        <v>6586</v>
+        <v>1001301876697</v>
       </c>
       <c r="C202" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B203" s="3">
-        <v>1001304496701</v>
+        <v>1001302276666</v>
       </c>
       <c r="C203" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B204" s="3">
-        <v>1001063655015</v>
+        <v>1001012634574</v>
       </c>
       <c r="C204" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B205" s="3">
-        <v>1001060763287</v>
+        <v>1001092485452</v>
       </c>
       <c r="C205" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B206" s="3">
-        <v>1001225416228</v>
+        <v>1001020966144</v>
       </c>
       <c r="C206" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B207" s="3">
-        <v>1001032736550</v>
+        <v>6586</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1001304496701</v>
+      </c>
+      <c r="C208" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1001063655015</v>
+      </c>
+      <c r="C209" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1001060763287</v>
+      </c>
+      <c r="C210" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1001225416228</v>
+      </c>
+      <c r="C211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1001032736550</v>
+      </c>
+      <c r="C212" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B213" s="3">
         <v>6758</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B214" s="3">
         <v>1001020965976</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C214" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B215" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C215" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B216" s="3">
         <v>1001094896026</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C216" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B217" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C217" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B218" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C218" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B219" s="3">
         <v>1001092436470</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C219" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B220" s="3">
         <v>1001203146555</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C220" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B221" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C221" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B222" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C222" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B223" s="3">
         <v>1001014765993</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C223" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B224" s="3">
         <v>1001025166776</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C224" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B225" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C225" t="s">
         <v>612</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E225" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B226" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C226" t="s">
         <v>612</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E226" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1001025507077</v>
+      </c>
+      <c r="C227" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1001025507077</v>
+      </c>
+      <c r="C228" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B229" s="3">
+        <v>1001025507077</v>
+      </c>
+      <c r="C229" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B230" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C230" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B231" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C231" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B232" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C232" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B233" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C233" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B234" s="3">
         <v>1001024976616</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C234" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B235" s="3">
         <v>1001010855247</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C235" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C236" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C237" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B238" s="3">
         <v>1001223296919</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C238" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B239" s="3">
         <v>1001223296919</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C239" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B240" s="3">
         <v>1001223296919</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C240" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B233" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C233" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B234" s="3">
-        <v>1001014765993</v>
-      </c>
-      <c r="C234" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B235" s="3">
-        <v>1001025166776</v>
-      </c>
-      <c r="C235" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1001025526778</v>
-      </c>
-      <c r="C236" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B237" s="3">
-        <v>1001304236685</v>
-      </c>
-      <c r="C237" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B238" s="3">
-        <v>1001015496769</v>
-      </c>
-      <c r="C238" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B239" s="3">
-        <v>1001015496769</v>
-      </c>
-      <c r="C239" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B240" s="3">
-        <v>1001014766798</v>
-      </c>
-      <c r="C240" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B241" s="3">
-        <v>1001015026797</v>
+        <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B242" s="3">
-        <v>1001205386222</v>
+        <v>1001014765993</v>
       </c>
       <c r="C242" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B243" s="3">
-        <v>1001092675224</v>
+        <v>1001025166776</v>
       </c>
       <c r="C243" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B244" s="3">
-        <v>1001225406223</v>
+        <v>1001025526778</v>
       </c>
       <c r="C244" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="B245" s="3">
-        <v>1001300366790</v>
+        <v>1001304236685</v>
       </c>
       <c r="C245" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="B246" s="3">
-        <v>1001304096792</v>
+        <v>1001015496769</v>
       </c>
       <c r="C246" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B247" s="3">
-        <v>1001304096792</v>
+        <v>1001015496769</v>
       </c>
       <c r="C247" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="B248" s="3">
-        <v>1001303636793</v>
+        <v>1001014766798</v>
       </c>
       <c r="C248" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="B249" s="3">
-        <v>1001303636794</v>
+        <v>1001015026797</v>
       </c>
       <c r="C249" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>506</v>
+        <v>343</v>
       </c>
       <c r="B250" s="3">
-        <v>1001303636794</v>
+        <v>1001205386222</v>
       </c>
       <c r="C250" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636794</v>
+        <v>1001092675224</v>
       </c>
       <c r="C251" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B252" s="3">
-        <v>1001302596795</v>
+        <v>1001225406223</v>
       </c>
       <c r="C252" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B253" s="3">
-        <v>1001302596796</v>
+        <v>1001300366790</v>
       </c>
       <c r="C253" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300456804</v>
+        <v>1001304096792</v>
       </c>
       <c r="C254" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300366806</v>
+        <v>1001304096792</v>
       </c>
       <c r="C255" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366806</v>
+        <v>1001303636793</v>
       </c>
       <c r="C256" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300516803</v>
+        <v>1001303636794</v>
       </c>
       <c r="C257" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>368</v>
+        <v>506</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300366807</v>
+        <v>1001303636794</v>
       </c>
       <c r="C258" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300366807</v>
+        <v>1001303636794</v>
       </c>
       <c r="C259" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300516785</v>
+        <v>1001302596795</v>
       </c>
       <c r="C260" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>547</v>
+        <v>364</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300456787</v>
+        <v>1001302596796</v>
       </c>
       <c r="C261" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300456787</v>
+        <v>1001300456804</v>
       </c>
       <c r="C262" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300456787</v>
+        <v>1001300366806</v>
       </c>
       <c r="C263" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B264" s="3">
-        <v>1001303636793</v>
+        <v>1001300366806</v>
       </c>
       <c r="C264" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B265" s="3">
-        <v>1001302596795</v>
+        <v>1001300516803</v>
       </c>
       <c r="C265" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B266" s="3">
-        <v>1001012486332</v>
+        <v>1001300366807</v>
       </c>
       <c r="C266" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B267" s="3">
-        <v>1001012566345</v>
+        <v>1001300366807</v>
       </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B268" s="3">
-        <v>1001031076528</v>
+        <v>1001300516785</v>
       </c>
       <c r="C268" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>424</v>
+        <v>547</v>
       </c>
       <c r="B269" s="3">
-        <v>1001020836761</v>
+        <v>1001300456787</v>
       </c>
       <c r="C269" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="B270" s="3">
-        <v>1001020836761</v>
+        <v>1001300456787</v>
       </c>
       <c r="C270" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B271" s="3">
-        <v>1001020836761</v>
+        <v>1001300456787</v>
       </c>
       <c r="C271" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B272" s="3">
-        <v>1001020846764</v>
+        <v>1001303636793</v>
       </c>
       <c r="C272" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="B273" s="3">
-        <v>1001020846764</v>
+        <v>1001302596795</v>
       </c>
       <c r="C273" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B274" s="3">
-        <v>1001020846764</v>
+        <v>1001012486332</v>
       </c>
       <c r="C274" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>502</v>
+        <v>390</v>
       </c>
       <c r="B275" s="3">
-        <v>1001300366790</v>
+        <v>1001012566345</v>
       </c>
       <c r="C275" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B276" s="3">
-        <v>1001300366790</v>
+        <v>1001031076528</v>
       </c>
       <c r="C276" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="B277" s="3">
-        <v>1001304096791</v>
+        <v>1001020836761</v>
       </c>
       <c r="C277" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="B278" s="3">
-        <v>1001304096791</v>
+        <v>1001020836761</v>
       </c>
       <c r="C278" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B279" s="3">
-        <v>1001304096791</v>
+        <v>1001020836761</v>
       </c>
       <c r="C279" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B280" s="3">
-        <v>1001303636793</v>
+        <v>1001020846764</v>
       </c>
       <c r="C280" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B281" s="3">
-        <v>1001302596795</v>
+        <v>1001020846764</v>
       </c>
       <c r="C281" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B282" s="3">
-        <v>1001300516803</v>
+        <v>1001020846764</v>
       </c>
       <c r="C282" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="B283" s="3">
-        <v>1001300456804</v>
+        <v>1001300366790</v>
       </c>
       <c r="C283" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B284" s="3">
-        <v>1001300366807</v>
+        <v>1001300366790</v>
       </c>
       <c r="C284" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="B285" s="3">
-        <v>1001302596796</v>
+        <v>1001304096791</v>
       </c>
       <c r="C285" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B286" s="3">
-        <v>1001023696765</v>
+        <v>1001304096791</v>
       </c>
       <c r="C286" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="B287" s="3">
-        <v>1001023696765</v>
+        <v>1001304096791</v>
       </c>
       <c r="C287" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B288" s="3">
+        <v>1001303636793</v>
+      </c>
+      <c r="C288" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C289" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1001300516803</v>
+      </c>
+      <c r="C290" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B291" s="3">
+        <v>1001300456804</v>
+      </c>
+      <c r="C291" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B292" s="3">
+        <v>1001300366807</v>
+      </c>
+      <c r="C292" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1001302596796</v>
+      </c>
+      <c r="C293" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B294" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C294" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C295" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B296" s="3">
         <v>1001023696765</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C296" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B297" s="3">
         <v>1001023696767</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C297" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B298" s="3">
         <v>1001023696767</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C298" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B299" s="3">
         <v>1001023696767</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C299" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B300" s="3">
         <v>1001024976829</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C300" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B301" s="3">
         <v>1001024976829</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C301" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B302" s="3">
         <v>1001022376722</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C302" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B303" s="3">
         <v>1001020846762</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C303" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B304" s="3">
         <v>1001020846762</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C304" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B305" s="3">
         <v>1001020846762</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C305" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B306" s="3">
         <v>1001022656853</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C306" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B307" s="3">
         <v>1001022656853</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C307" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B308" s="3">
         <v>1001022657075</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C308" t="s">
         <v>614</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E308" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B309" s="3">
         <v>1001022657075</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C309" t="s">
         <v>614</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E309" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B310" s="3">
+        <v>1001022657075</v>
+      </c>
+      <c r="C310" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" s="3">
+        <v>1001022657075</v>
+      </c>
+      <c r="C311" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B312" s="3">
         <v>1001022656948</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C312" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B313" s="3">
+        <v>1001022657073</v>
+      </c>
+      <c r="C313" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1001022657073</v>
+      </c>
+      <c r="C314" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B315" s="3">
         <v>1001022657073</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C315" t="s">
         <v>620</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E315" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B316" s="3">
         <v>1001020836759</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C316" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B317" s="3">
         <v>1001020836759</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C317" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B318" s="3">
         <v>1001020836759</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C318" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B319" s="3">
         <v>1001023856870</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C319" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B320" s="3">
         <v>1001013956426</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C320" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B309" s="3">
-        <v>1001093345495</v>
-      </c>
-      <c r="C309" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B310" s="3">
-        <v>1001022656868</v>
-      </c>
-      <c r="C310" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B311" s="3">
-        <v>1001022656868</v>
-      </c>
-      <c r="C311" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B312" s="3">
-        <v>1001034065698</v>
-      </c>
-      <c r="C312" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B313" s="3">
-        <v>1001034065698</v>
-      </c>
-      <c r="C313" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B314" s="3">
-        <v>1001034065698</v>
-      </c>
-      <c r="C314" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B315" s="3">
-        <v>1001034065698</v>
-      </c>
-      <c r="C315" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B316" s="3">
-        <v>1001084216206</v>
-      </c>
-      <c r="C316" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B317" s="3">
-        <v>1001015646861</v>
-      </c>
-      <c r="C317" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B318" s="3">
-        <v>1001015646861</v>
-      </c>
-      <c r="C318" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B319" s="3">
-        <v>1001025176768</v>
-      </c>
-      <c r="C319" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B320" s="3">
-        <v>1001025176768</v>
-      </c>
-      <c r="C320" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B321" s="3">
-        <v>1001025176768</v>
+        <v>1001093345495</v>
       </c>
       <c r="C321" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="B322" s="3">
-        <v>1001025486770</v>
+        <v>1001022656868</v>
       </c>
       <c r="C322" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B323" s="3">
-        <v>1001025486770</v>
+        <v>1001022656868</v>
       </c>
       <c r="C323" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>474</v>
+        <v>176</v>
       </c>
       <c r="B324" s="3">
-        <v>1001025486770</v>
+        <v>1001034065698</v>
       </c>
       <c r="C324" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B325" s="3">
-        <v>1001012816340</v>
+        <v>1001034065698</v>
       </c>
       <c r="C325" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B326" s="3">
-        <v>1001012816340</v>
+        <v>1001034065698</v>
       </c>
       <c r="C326" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B327" s="3">
-        <v>1001012816340</v>
+        <v>1001034065698</v>
       </c>
       <c r="C327" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="B328" s="3">
-        <v>1001203146834</v>
+        <v>1001084216206</v>
       </c>
       <c r="C328" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B329" s="3">
-        <v>1001203146834</v>
+        <v>1001015646861</v>
       </c>
       <c r="C329" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B330" s="3">
-        <v>1001203146834</v>
+        <v>1001015646861</v>
       </c>
       <c r="C330" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B331" s="3">
-        <v>1001203146834</v>
+        <v>1001025176768</v>
       </c>
       <c r="C331" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B332" s="3">
-        <v>1001300456788</v>
+        <v>1001025176768</v>
       </c>
       <c r="C332" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B333" s="3">
-        <v>1001022556837</v>
+        <v>1001025176768</v>
       </c>
       <c r="C333" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="B334" s="3">
-        <v>1001300516786</v>
+        <v>1001025486770</v>
       </c>
       <c r="C334" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="B335" s="3">
-        <v>1001214196459</v>
+        <v>1001025486770</v>
       </c>
       <c r="C335" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>558</v>
+        <v>474</v>
       </c>
       <c r="B336" s="3">
-        <v>1001092436495</v>
+        <v>1001025486770</v>
       </c>
       <c r="C336" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
       <c r="B337" s="3">
-        <v>1001092436495</v>
+        <v>1001012816340</v>
       </c>
       <c r="C337" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B338" s="3">
-        <v>1001092436495</v>
+        <v>1001012816340</v>
       </c>
       <c r="C338" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="B339" s="3">
-        <v>1001025526901</v>
+        <v>1001012816340</v>
       </c>
       <c r="C339" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>513</v>
+        <v>320</v>
       </c>
       <c r="B340" s="3">
-        <v>1001025546931</v>
+        <v>1001203146834</v>
       </c>
       <c r="C340" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="B341" s="3">
-        <v>1001010016324</v>
+        <v>1001203146834</v>
       </c>
       <c r="C341" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="B342" s="3">
-        <v>1001010016324</v>
+        <v>1001203146834</v>
       </c>
       <c r="C342" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="B343" s="3">
-        <v>1001010016324</v>
+        <v>1001203146834</v>
       </c>
       <c r="C343" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="B344" s="3">
-        <v>1001025766909</v>
+        <v>1001300456788</v>
       </c>
       <c r="C344" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="B345" s="3">
-        <v>1001025766909</v>
+        <v>1001022556837</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025766909</v>
+        <v>1001300516786</v>
       </c>
       <c r="C346" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B347" s="3">
-        <v>1001010014558</v>
+        <v>1001214196459</v>
       </c>
       <c r="C347" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="B348" s="3">
-        <v>1001010014558</v>
+        <v>1001092436495</v>
       </c>
       <c r="C348" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="B349" s="3">
-        <v>1001012596802</v>
+        <v>1001092436495</v>
       </c>
       <c r="C349" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B350" s="3">
-        <v>1001012596802</v>
+        <v>1001092436495</v>
       </c>
       <c r="C350" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B351" s="3">
-        <v>1001012596802</v>
+        <v>1001025526901</v>
       </c>
       <c r="C351" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1001025546931</v>
+      </c>
+      <c r="C352" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B353" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C353" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B354" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C354" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B355" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C355" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B356" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C356" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C357" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B358" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C358" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1001010014558</v>
+      </c>
+      <c r="C359" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B360" s="3">
+        <v>1001010014558</v>
+      </c>
+      <c r="C360" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B361" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C361" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B362" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C362" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C363" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B364" s="3">
         <v>1001012596801</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C364" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B365" s="3">
         <v>1001012596801</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C365" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B366" s="3">
         <v>1001012596801</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C366" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B367" s="3">
         <v>1001062353684</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C367" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B368" s="3">
         <v>1001010014555</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C368" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B357" s="3">
-        <v>1001083424691</v>
-      </c>
-      <c r="C357" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B358" s="3">
-        <v>1001190765679</v>
-      </c>
-      <c r="C358" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B359" s="3">
-        <v>1001085636200</v>
-      </c>
-      <c r="C359" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B360" s="3">
-        <v>1001020836253</v>
-      </c>
-      <c r="C360" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B361" s="3">
-        <v>1001084226492</v>
-      </c>
-      <c r="C361" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B362" s="3">
-        <v>1001223297092</v>
-      </c>
-      <c r="C362" t="s">
-        <v>632</v>
-      </c>
-      <c r="E362" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B363" s="3">
-        <v>1001053944786</v>
-      </c>
-      <c r="C363" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B364" s="3">
-        <v>1001010016839</v>
-      </c>
-      <c r="C364" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B365" s="3">
-        <v>1001023857038</v>
-      </c>
-      <c r="C365" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B366" s="3">
-        <v>1001040434903</v>
-      </c>
-      <c r="C366" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B367" s="3">
-        <v>1001080216842</v>
-      </c>
-      <c r="C367" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B368" s="3">
-        <v>1001022467082</v>
-      </c>
-      <c r="C368" t="s">
-        <v>616</v>
-      </c>
-      <c r="E368" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="B369" s="3">
-        <v>1001022467082</v>
+        <v>1001083424691</v>
       </c>
       <c r="C369" t="s">
-        <v>616</v>
-      </c>
-      <c r="E369" t="s">
-        <v>633</v>
+        <v>533</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="B370" s="3">
-        <v>1001035277059</v>
+        <v>1001190765679</v>
       </c>
       <c r="C370" t="s">
-        <v>634</v>
-      </c>
-      <c r="E370" t="s">
-        <v>633</v>
+        <v>535</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B371" s="3">
-        <v>1001062353680</v>
+        <v>1001085636200</v>
       </c>
       <c r="C371" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="B372" s="3">
-        <v>1001061971146</v>
+        <v>1001020836253</v>
       </c>
       <c r="C372" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="B373" s="3">
-        <v>1001225636201</v>
+        <v>1001084226492</v>
       </c>
       <c r="C373" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="B374" s="3">
-        <v>1001020836724</v>
+        <v>1001223297092</v>
       </c>
       <c r="C374" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="B375" s="3">
-        <v>1001095227035</v>
+        <v>1001223297092</v>
       </c>
       <c r="C375" t="s">
-        <v>593</v>
+        <v>632</v>
+      </c>
+      <c r="E375" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="B376" s="3">
-        <v>1001023857038</v>
+        <v>1001053944786</v>
       </c>
       <c r="C376" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="B377" s="3">
-        <v>1001025027040</v>
+        <v>1001010016839</v>
       </c>
       <c r="C377" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="B378" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C378" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="B379" s="3">
-        <v>1001223297103</v>
+        <v>1001040434903</v>
       </c>
       <c r="C379" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="B380" s="3">
-        <v>1001223297103</v>
+        <v>1001080216842</v>
       </c>
       <c r="C380" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="B381" s="3">
-        <v>1001010032675</v>
+        <v>1001022467082</v>
       </c>
       <c r="C381" t="s">
-        <v>602</v>
+        <v>616</v>
+      </c>
+      <c r="E381" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="B382" s="3">
-        <v>1001010032675</v>
+        <v>1001022467082</v>
       </c>
       <c r="C382" t="s">
-        <v>602</v>
+        <v>616</v>
+      </c>
+      <c r="E382" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B383" s="3">
-        <v>1001035937001</v>
+        <v>1001022467082</v>
       </c>
       <c r="C383" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B384" s="3">
+        <v>1001022467082</v>
+      </c>
+      <c r="C384" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B385" s="3">
+        <v>1001022467082</v>
+      </c>
+      <c r="C385" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B386" s="3">
+        <v>1001035277059</v>
+      </c>
+      <c r="C386" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B387" s="3">
+        <v>1001035277059</v>
+      </c>
+      <c r="C387" t="s">
+        <v>634</v>
+      </c>
+      <c r="E387" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B388" s="3">
+        <v>1001062353680</v>
+      </c>
+      <c r="C388" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B389" s="3">
+        <v>1001061971146</v>
+      </c>
+      <c r="C389" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B390" s="3">
+        <v>1001225636201</v>
+      </c>
+      <c r="C390" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B391" s="3">
+        <v>1001020836724</v>
+      </c>
+      <c r="C391" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B392" s="3">
+        <v>1001095227035</v>
+      </c>
+      <c r="C392" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B393" s="3">
+        <v>1001023857038</v>
+      </c>
+      <c r="C393" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B394" s="3">
+        <v>1001025027040</v>
+      </c>
+      <c r="C394" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B395" s="3">
+        <v>1001223297103</v>
+      </c>
+      <c r="C395" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B396" s="3">
+        <v>1001223297103</v>
+      </c>
+      <c r="C396" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B397" s="3">
+        <v>1001223297103</v>
+      </c>
+      <c r="C397" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B398" s="3">
+        <v>1001010032675</v>
+      </c>
+      <c r="C398" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B399" s="3">
+        <v>1001010032675</v>
+      </c>
+      <c r="C399" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B400" s="3">
         <v>1001035937001</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C400" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B385" s="3">
-        <v>1001035937001</v>
-      </c>
-      <c r="C385" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B386" s="3">
-        <v>1001084217090</v>
-      </c>
-      <c r="C386" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B387" s="3">
-        <v>1001084217090</v>
-      </c>
-      <c r="C387" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B388" s="3">
-        <v>1001022377066</v>
-      </c>
-      <c r="C388" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B389" s="3">
-        <v>1001022377066</v>
-      </c>
-      <c r="C389" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B390" s="3">
-        <v>1001022467080</v>
-      </c>
-      <c r="C390" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B391" s="3">
-        <v>1001022467080</v>
-      </c>
-      <c r="C391" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B392" s="3">
-        <v>1001025507077</v>
-      </c>
-      <c r="C392" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B393" s="3">
-        <v>1001025507077</v>
-      </c>
-      <c r="C393" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B394" s="3">
-        <v>1001022657075</v>
-      </c>
-      <c r="C394" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B395" s="3">
-        <v>1001022467082</v>
-      </c>
-      <c r="C395" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B396" s="3">
-        <v>1001022467082</v>
-      </c>
-      <c r="C396" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B397" s="3">
-        <v>1001022377070</v>
-      </c>
-      <c r="C397" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B398" s="3">
-        <v>1001022657073</v>
-      </c>
-      <c r="C398" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B399" s="3">
-        <v>1001010027126</v>
-      </c>
-      <c r="C399" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B400" s="3">
-        <v>1001010027125</v>
-      </c>
-      <c r="C400" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B401" s="3">
+        <v>1001035937001</v>
+      </c>
+      <c r="C401" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B402" s="3">
+        <v>1001035937001</v>
+      </c>
+      <c r="C402" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B403" s="3">
+        <v>1001084217090</v>
+      </c>
+      <c r="C403" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B404" s="3">
+        <v>1001084217090</v>
+      </c>
+      <c r="C404" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B405" s="3">
+        <v>1001022377066</v>
+      </c>
+      <c r="C405" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B406" s="3">
+        <v>1001022377066</v>
+      </c>
+      <c r="C406" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B407" s="3">
+        <v>1001022377066</v>
+      </c>
+      <c r="C407" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B408" s="3">
+        <v>1001010027126</v>
+      </c>
+      <c r="C408" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B409" s="3">
+        <v>1001010027125</v>
+      </c>
+      <c r="C409" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B410" s="3">
         <v>1001223297053</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C410" t="s">
         <v>638</v>
       </c>
     </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B411" s="3">
+        <v>1001093316411</v>
+      </c>
+      <c r="C411" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B412" s="3">
+        <v>1001025526962</v>
+      </c>
+      <c r="C412" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B413" s="3">
+        <v>1001025886987</v>
+      </c>
+      <c r="C413" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C400" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C413" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92636D27-E7DF-4759-B3FC-F5FEB5EF8786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E140C-016E-4E25-A6B7-88149EB9B973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="659">
   <si>
     <t>1С</t>
   </si>
@@ -123,9 +123,6 @@
     <t>5341 СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у</t>
-  </si>
-  <si>
     <t>5483 ЭКСТРА Папа может с/к в/у 1/250 8шт.   ОСТАНКИНО</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
     <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
   </si>
   <si>
@@ -765,9 +759,6 @@
     <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
   </si>
   <si>
-    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
   </si>
   <si>
@@ -1398,9 +1389,6 @@
     <t>4614 ВЕТЧ.Нежная п/о _ Коровино</t>
   </si>
   <si>
-    <t>6206 СВИНИНА ПО-ДОМАШНЕМУ к/в мл/к в/у 0,3кг  Останкино</t>
-  </si>
-  <si>
     <t>6806 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,66кг 8шт  Останкино</t>
   </si>
   <si>
@@ -1803,9 +1791,6 @@
     <t>ГРУДИНКА ПРЕМИУМ к/в с/н в/у 1/150 8шт.</t>
   </si>
   <si>
-    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
     <t>6724 МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -1996,6 +1981,36 @@
   </si>
   <si>
     <t>7082 СЛИВОЧНЫЕ ПМ сос п/о мгс 1.5*4_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7052 ПЕППЕРОНИ с/к с/н мгс 1*2_HRC  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПЕППЕРОНИ с/к с/н мгс 1*2_HRC</t>
+  </si>
+  <si>
+    <t>7074 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 0.6кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7103 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ротация 28,02,25</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
   </si>
 </sst>
 </file>
@@ -2446,68 +2461,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,12 +2533,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2543,7 +2558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2565,7 +2580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2584,32 +2599,32 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2617,236 +2632,239 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>1001053985341</v>
+        <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
+        <v>654</v>
+      </c>
+      <c r="E24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>1001062505483</v>
       </c>
       <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B26" s="3">
         <v>1001051875544</v>
       </c>
       <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>1001193115682</v>
       </c>
       <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>1001061975706</v>
       </c>
       <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B29" s="3">
         <v>1001063145708</v>
       </c>
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B30" s="3">
         <v>1001022465820</v>
       </c>
       <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B31" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B32" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
         <v>1001012815997</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3">
         <v>1001024906042</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>454</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>491</v>
       </c>
       <c r="B39" s="3">
-        <v>1001084216206</v>
+        <v>1001022556069</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>495</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="3">
-        <v>1001022556069</v>
+        <v>1001010106325</v>
       </c>
       <c r="C41" t="s">
-        <v>485</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3">
-        <v>1001010106325</v>
+        <v>1001012486333</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3">
-        <v>1001012486333</v>
+        <v>1001012506353</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B44" s="3">
-        <v>1001012506353</v>
+        <v>1001304506684</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -2854,87 +2872,90 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3">
-        <v>1001304506684</v>
+        <v>1001303056692</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B46" s="3">
-        <v>1001303056692</v>
+        <v>1001303637149</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>658</v>
+      </c>
+      <c r="E46" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>589</v>
+        <v>65</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303636415</v>
+        <v>1001013956426</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="3">
-        <v>1001303636415</v>
+        <v>1001024636438</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3">
-        <v>1001013956426</v>
+        <v>1001234146448</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="B50" s="3">
-        <v>1001024636438</v>
+        <v>1001202506453</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="3">
-        <v>1001234146448</v>
+        <v>1001202506453</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B52" s="3">
-        <v>1001202506453</v>
+        <v>1001201976454</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
@@ -2942,767 +2963,776 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3">
-        <v>1001202506453</v>
+        <v>1001025176475</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3">
-        <v>1001201976454</v>
+        <v>1001301876697</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3">
-        <v>1001025176475</v>
+        <v>1001024636517</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3">
-        <v>1001301876697</v>
+        <v>1001031076527</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3">
-        <v>1001024636517</v>
+        <v>1001304506562</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B58" s="3">
-        <v>1001031076527</v>
+        <v>1001020846563</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3">
-        <v>1001304506562</v>
+        <v>1001020836589</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3">
-        <v>1001020846563</v>
+        <v>6751</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3">
-        <v>1001020836589</v>
+        <v>1001010016592</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="3">
-        <v>6751</v>
+        <v>1001010026594</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="3">
-        <v>1001010016592</v>
+        <v>1001022296601</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3">
-        <v>1001010026594</v>
+        <v>1001031896648</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="3">
-        <v>1001022296601</v>
+        <v>1001035266650</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="3">
-        <v>1001031896648</v>
+        <v>1001305256658</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="3">
-        <v>1001035266650</v>
+        <v>1001010016593</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3">
-        <v>1001305256658</v>
+        <v>1001010026595</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010016593</v>
+        <v>1001010036597</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B70" s="3">
-        <v>1001010026595</v>
+        <v>1001020886646</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="B71" s="3">
-        <v>1001010036597</v>
+        <v>1001305306566</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
         <v>119</v>
       </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B72" s="3">
-        <v>1001020886646</v>
+        <v>1001305306566</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>327</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B73" s="3">
-        <v>1001305306566</v>
+        <v>1001300387154</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="E73" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B74" s="3">
-        <v>1001305306566</v>
+        <v>1001303987169</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="E74" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="B75" s="3">
-        <v>1001300386683</v>
+        <v>1001303106773</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1001303986689</v>
+        <v>354</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1001303106773</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" s="3">
+        <v>276</v>
+      </c>
+      <c r="B77" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B78" s="5">
+        <v>122</v>
+      </c>
+      <c r="B78" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B79" s="5">
+        <v>394</v>
+      </c>
+      <c r="B79" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="B80" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C80" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B81" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="B82" s="3">
-        <v>1001303106773</v>
+        <v>1001012566392</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B83" s="3">
-        <v>1001303106773</v>
+        <v>1001012566392</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="B84" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>427</v>
+        <v>129</v>
       </c>
       <c r="B85" s="3">
-        <v>1001012566392</v>
+        <v>1001302277173</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="E85" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B86" s="3">
-        <v>1001012566392</v>
+        <v>1001012426268</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B87" s="3">
-        <v>1001302276666</v>
+        <v>1001024906041</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B88" s="3">
-        <v>1001012426268</v>
+        <v>1001011086247</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B89" s="3">
-        <v>1001024906041</v>
+        <v>1001014486158</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B90" s="3">
-        <v>1001011086247</v>
+        <v>1001015356259</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B91" s="3">
-        <v>1001014486158</v>
+        <v>1001012816716</v>
       </c>
       <c r="C91" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="B92" s="3">
-        <v>1001015356259</v>
+        <v>1001020966227</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B93" s="3">
-        <v>1001012816716</v>
+        <v>1001020966227</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>332</v>
+        <v>228</v>
       </c>
       <c r="B94" s="3">
-        <v>1001020966227</v>
+        <v>1001022726303</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="B95" s="3">
-        <v>1001020966227</v>
+        <v>1001022726303</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="B96" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="B97" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022726303</v>
+        <v>1001022466726</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022726303</v>
+        <v>1001020966144</v>
       </c>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>578</v>
       </c>
       <c r="B101" s="3">
-        <v>1001020966144</v>
+        <v>1001022377070</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>613</v>
+      </c>
+      <c r="E101" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>576</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022376722</v>
+        <v>1001022377070</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>613</v>
+      </c>
+      <c r="E102" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="B103" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C103" t="s">
-        <v>618</v>
-      </c>
-      <c r="E103" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="B104" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C104" t="s">
-        <v>618</v>
-      </c>
-      <c r="E104" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>649</v>
+        <v>142</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022377070</v>
+        <v>1001022376955</v>
       </c>
       <c r="C105" t="s">
-        <v>618</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022377070</v>
+        <v>1001022246661</v>
       </c>
       <c r="C106" t="s">
-        <v>618</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022376955</v>
+        <v>1001022246661</v>
       </c>
       <c r="C107" t="s">
-        <v>574</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="B108" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="C109" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022246661</v>
+        <v>1001025166241</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022246713</v>
+        <v>6606</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B112" s="3">
-        <v>1001025166241</v>
+        <v>1001035326217</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B113" s="3">
-        <v>6606</v>
+        <v>1001303636301</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B114" s="3">
-        <v>1001035326217</v>
+        <v>1001303636302</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B115" s="3">
-        <v>1001303636301</v>
+        <v>1001305196215</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B116" s="3">
-        <v>1001303636302</v>
+        <v>1001301876212</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B117" s="3">
-        <v>1001305196215</v>
+        <v>1001301876213</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B118" s="3">
-        <v>1001301876212</v>
+        <v>1001303636302</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B119" s="3">
-        <v>1001301876213</v>
+        <v>6645</v>
       </c>
       <c r="C119" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B120" s="3">
-        <v>1001303636302</v>
+        <v>1001225416228</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B121" s="3">
-        <v>6645</v>
+        <v>6225</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,190 +3740,190 @@
         <v>171</v>
       </c>
       <c r="B122" s="3">
-        <v>1001225416228</v>
+        <v>1001022377066</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>603</v>
+      </c>
+      <c r="E122" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B123" s="3">
-        <v>6225</v>
+        <v>1001022377066</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>603</v>
+      </c>
+      <c r="E123" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B124" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C124" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E124" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="B125" s="3">
-        <v>1001022377066</v>
+        <v>3297</v>
       </c>
       <c r="C125" t="s">
-        <v>608</v>
-      </c>
-      <c r="E125" t="s">
-        <v>633</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022377066</v>
+        <v>1001022467080</v>
       </c>
       <c r="C126" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E126" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B127" s="3">
-        <v>3297</v>
+        <v>1001022467080</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>605</v>
+      </c>
+      <c r="E127" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>322</v>
+        <v>647</v>
       </c>
       <c r="B128" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C128" t="s">
-        <v>610</v>
-      </c>
-      <c r="E128" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>178</v>
+        <v>624</v>
       </c>
       <c r="B129" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C129" t="s">
-        <v>610</v>
-      </c>
-      <c r="E129" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>652</v>
+        <v>604</v>
       </c>
       <c r="B130" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C130" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>629</v>
+        <v>177</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022467080</v>
+        <v>1001021966602</v>
       </c>
       <c r="C131" t="s">
-        <v>610</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>609</v>
+        <v>179</v>
       </c>
       <c r="B132" s="3">
-        <v>1001022467080</v>
+        <v>6233</v>
       </c>
       <c r="C132" t="s">
-        <v>610</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="B133" s="3">
-        <v>1001021966602</v>
+        <v>1001012816341</v>
       </c>
       <c r="C133" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
       <c r="B134" s="3">
-        <v>6233</v>
+        <v>1001012816341</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>274</v>
+        <v>496</v>
       </c>
       <c r="B135" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>497</v>
+        <v>180</v>
       </c>
       <c r="B136" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>500</v>
+        <v>181</v>
       </c>
       <c r="B137" s="3">
-        <v>1001012816341</v>
+        <v>6750</v>
       </c>
       <c r="C137" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,10 +3931,10 @@
         <v>182</v>
       </c>
       <c r="B138" s="3">
-        <v>1001012816341</v>
+        <v>6751</v>
       </c>
       <c r="C138" t="s">
-        <v>451</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,90 +3942,90 @@
         <v>183</v>
       </c>
       <c r="B139" s="3">
-        <v>6750</v>
+        <v>5982</v>
       </c>
       <c r="C139" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>184</v>
+        <v>559</v>
       </c>
       <c r="B140" s="3">
-        <v>6751</v>
+        <v>1001022657074</v>
       </c>
       <c r="C140" t="s">
-        <v>94</v>
+        <v>630</v>
+      </c>
+      <c r="E140" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="B141" s="3">
-        <v>5982</v>
+        <v>1001022657074</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>630</v>
+      </c>
+      <c r="E141" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>563</v>
+        <v>651</v>
       </c>
       <c r="B142" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C142" t="s">
-        <v>635</v>
-      </c>
-      <c r="E142" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>464</v>
+        <v>185</v>
       </c>
       <c r="B143" s="3">
-        <v>1001022657074</v>
+        <v>1001022656854</v>
       </c>
       <c r="C143" t="s">
-        <v>635</v>
-      </c>
-      <c r="E143" t="s">
-        <v>633</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1001094966025</v>
+      </c>
+      <c r="C144" t="s">
         <v>187</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1001022656854</v>
-      </c>
-      <c r="C144" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B145" s="3">
-        <v>1001094966025</v>
+        <v>6025</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B146" s="3">
-        <v>6025</v>
+        <v>6221</v>
       </c>
       <c r="C146" t="s">
         <v>189</v>
@@ -4006,10 +4036,10 @@
         <v>192</v>
       </c>
       <c r="B147" s="3">
-        <v>6221</v>
+        <v>1001205376221</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,109 +4047,109 @@
         <v>194</v>
       </c>
       <c r="B148" s="3">
-        <v>1001205376221</v>
+        <v>1001022373812</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022373812</v>
+        <v>1001100606827</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="B150" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C150" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="B151" s="3">
-        <v>1001100606827</v>
+        <v>1001100616826</v>
       </c>
       <c r="C151" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="B152" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
       <c r="B153" s="3">
-        <v>1001100616826</v>
+        <v>1001100626828</v>
       </c>
       <c r="C153" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="B154" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C154" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="B155" s="3">
-        <v>1001100626828</v>
+        <v>1001035026308</v>
       </c>
       <c r="C155" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
       <c r="B156" s="3">
-        <v>1001035026308</v>
+        <v>1001014486159</v>
       </c>
       <c r="C156" t="s">
-        <v>201</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>567</v>
+        <v>200</v>
       </c>
       <c r="B157" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C157" t="s">
-        <v>568</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4127,32 +4157,32 @@
         <v>202</v>
       </c>
       <c r="B158" s="3">
-        <v>1001014486159</v>
+        <v>1001035326217</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1001012426220</v>
+      </c>
+      <c r="C159" t="s">
         <v>204</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1001035326217</v>
-      </c>
-      <c r="C159" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>515</v>
+        <v>203</v>
       </c>
       <c r="B160" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,7 +4190,7 @@
         <v>205</v>
       </c>
       <c r="B161" s="3">
-        <v>1001012426220</v>
+        <v>1001022466236</v>
       </c>
       <c r="C161" t="s">
         <v>206</v>
@@ -4171,7 +4201,7 @@
         <v>207</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022466236</v>
+        <v>1001021966602</v>
       </c>
       <c r="C162" t="s">
         <v>208</v>
@@ -4182,7 +4212,7 @@
         <v>209</v>
       </c>
       <c r="B163" s="3">
-        <v>1001021966602</v>
+        <v>1001022296656</v>
       </c>
       <c r="C163" t="s">
         <v>210</v>
@@ -4193,21 +4223,21 @@
         <v>211</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022296656</v>
+        <v>1001304506684</v>
       </c>
       <c r="C164" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1001301876697</v>
+      </c>
+      <c r="C165" t="s">
         <v>213</v>
-      </c>
-      <c r="B165" s="3">
-        <v>1001304506684</v>
-      </c>
-      <c r="C165" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,7 +4245,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="3">
-        <v>1001301876697</v>
+        <v>1001022246713</v>
       </c>
       <c r="C166" t="s">
         <v>215</v>
@@ -4223,24 +4253,24 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022246713</v>
+        <v>1001020846751</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1001022725819</v>
+      </c>
+      <c r="C168" t="s">
         <v>220</v>
-      </c>
-      <c r="B168" s="3">
-        <v>1001020846751</v>
-      </c>
-      <c r="C168" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,54 +4278,54 @@
         <v>221</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C169" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012825337</v>
+        <v>1001012815336</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B171" s="3">
-        <v>1001012815336</v>
+        <v>1001234146448</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B172" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C172" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1001092676027</v>
+      </c>
+      <c r="C173" t="s">
         <v>226</v>
-      </c>
-      <c r="B173" s="3">
-        <v>1001022725819</v>
-      </c>
-      <c r="C173" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +4333,10 @@
         <v>227</v>
       </c>
       <c r="B174" s="3">
-        <v>1001092676027</v>
+        <v>1001301876213</v>
       </c>
       <c r="C174" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,10 +4344,10 @@
         <v>229</v>
       </c>
       <c r="B175" s="3">
-        <v>1001301876213</v>
+        <v>1001035026308</v>
       </c>
       <c r="C175" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,10 +4355,10 @@
         <v>231</v>
       </c>
       <c r="B176" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,18 +4366,18 @@
         <v>233</v>
       </c>
       <c r="B177" s="3">
-        <v>1001234146448</v>
+        <v>1001201976454</v>
       </c>
       <c r="C177" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B178" s="3">
-        <v>1001201976454</v>
+        <v>1001025176475</v>
       </c>
       <c r="C178" t="s">
         <v>76</v>
@@ -4355,13 +4385,13 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" s="3">
+        <v>1001012456498</v>
+      </c>
+      <c r="C179" t="s">
         <v>236</v>
-      </c>
-      <c r="B179" s="3">
-        <v>1001025176475</v>
-      </c>
-      <c r="C179" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,7 +4399,7 @@
         <v>237</v>
       </c>
       <c r="B180" s="3">
-        <v>1001012456498</v>
+        <v>1001010036596</v>
       </c>
       <c r="C180" t="s">
         <v>238</v>
@@ -4377,79 +4407,79 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>239</v>
+        <v>573</v>
       </c>
       <c r="B181" s="3">
-        <v>1001010036596</v>
+        <v>1001033856608</v>
       </c>
       <c r="C181" t="s">
-        <v>240</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B182" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C182" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B183" s="3">
-        <v>1001033856608</v>
+        <v>1001033856609</v>
       </c>
       <c r="C183" t="s">
-        <v>569</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>578</v>
+        <v>239</v>
       </c>
       <c r="B184" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B185" s="3">
-        <v>1001033856609</v>
+        <v>1001093345495</v>
       </c>
       <c r="C185" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B186" s="3">
-        <v>1001302276666</v>
+        <v>6550</v>
       </c>
       <c r="C186" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B187" s="3">
-        <v>1001093345495</v>
+        <v>1001304506684</v>
       </c>
       <c r="C187" t="s">
-        <v>452</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4487,7 @@
         <v>247</v>
       </c>
       <c r="B188" s="3">
-        <v>6550</v>
+        <v>1001010113248</v>
       </c>
       <c r="C188" t="s">
         <v>248</v>
@@ -4465,90 +4495,90 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="B189" s="3">
-        <v>1001304506684</v>
+        <v>1001063926780</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B190" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C190" t="s">
         <v>250</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1001010113248</v>
-      </c>
-      <c r="C190" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>425</v>
+        <v>251</v>
       </c>
       <c r="B191" s="3">
-        <v>1001063926780</v>
+        <v>1001303636467</v>
       </c>
       <c r="C191" t="s">
-        <v>426</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B192" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C192" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B193" s="3">
-        <v>1001303636467</v>
+        <v>6144</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B194" s="3">
-        <v>1001304496701</v>
+        <v>1001022725819</v>
       </c>
       <c r="C194" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B195" s="3">
-        <v>6144</v>
+        <v>1001022373812</v>
       </c>
       <c r="C195" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B196" s="3">
-        <v>1001022725819</v>
+        <v>1001024906062</v>
       </c>
       <c r="C196" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,10 +4586,10 @@
         <v>265</v>
       </c>
       <c r="B197" s="3">
-        <v>1001022373812</v>
+        <v>1001300386683</v>
       </c>
       <c r="C197" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,40 +4597,40 @@
         <v>266</v>
       </c>
       <c r="B198" s="3">
-        <v>1001024906062</v>
+        <v>1001303986689</v>
       </c>
       <c r="C198" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B199" s="3">
-        <v>1001300386683</v>
+        <v>1001303056692</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B200" s="3">
-        <v>1001303986689</v>
+        <v>1001301876697</v>
       </c>
       <c r="C200" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="3">
-        <v>1001303056692</v>
+        <v>1001302276666</v>
       </c>
       <c r="C201" t="s">
         <v>63</v>
@@ -4608,13 +4638,13 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="3">
-        <v>1001301876697</v>
+        <v>1001012634574</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,21 +4652,21 @@
         <v>272</v>
       </c>
       <c r="B203" s="3">
-        <v>1001302276666</v>
+        <v>1001092485452</v>
       </c>
       <c r="C203" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B204" s="3">
-        <v>1001012634574</v>
+        <v>1001020966144</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4644,10 +4674,10 @@
         <v>275</v>
       </c>
       <c r="B205" s="3">
-        <v>1001092485452</v>
+        <v>6586</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4655,10 +4685,10 @@
         <v>277</v>
       </c>
       <c r="B206" s="3">
-        <v>1001020966144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C206" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,442 +4696,442 @@
         <v>278</v>
       </c>
       <c r="B207" s="3">
-        <v>6586</v>
+        <v>1001063655015</v>
       </c>
       <c r="C207" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B208" s="3">
-        <v>1001304496701</v>
+        <v>1001060763287</v>
       </c>
       <c r="C208" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B209" s="3">
-        <v>1001063655015</v>
+        <v>1001225416228</v>
       </c>
       <c r="C209" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B210" s="3">
-        <v>1001060763287</v>
+        <v>1001032736550</v>
       </c>
       <c r="C210" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="B211" s="3">
+        <v>6758</v>
+      </c>
+      <c r="C211" t="s">
         <v>286</v>
       </c>
-      <c r="B211" s="3">
-        <v>1001225416228</v>
-      </c>
-      <c r="C211" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B212" s="3">
-        <v>1001032736550</v>
+        <v>1001020965976</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B213" s="3">
-        <v>6758</v>
+        <v>1001215576586</v>
       </c>
       <c r="C213" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B214" s="3">
-        <v>1001020965976</v>
+        <v>1001094896026</v>
       </c>
       <c r="C214" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>292</v>
+        <v>501</v>
       </c>
       <c r="B215" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C215" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B216" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C216" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="B217" s="3">
-        <v>1001215576586</v>
+        <v>1001092436470</v>
       </c>
       <c r="C217" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B218" s="3">
-        <v>1001215576586</v>
+        <v>1001203146555</v>
       </c>
       <c r="C218" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B219" s="3">
-        <v>1001092436470</v>
+        <v>1001014765992</v>
       </c>
       <c r="C219" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1001014765992</v>
+      </c>
+      <c r="C220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1001014765993</v>
+      </c>
+      <c r="C221" t="s">
         <v>304</v>
       </c>
-      <c r="B220" s="3">
-        <v>1001203146555</v>
-      </c>
-      <c r="C220" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1001014765992</v>
-      </c>
-      <c r="C221" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B222" s="3">
-        <v>1001014765992</v>
+        <v>1001025166776</v>
       </c>
       <c r="C222" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1001025507077</v>
+      </c>
+      <c r="C223" t="s">
+        <v>607</v>
+      </c>
+      <c r="E223" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B223" s="3">
-        <v>1001014765993</v>
-      </c>
-      <c r="C223" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="B224" s="3">
-        <v>1001025166776</v>
+        <v>1001025507077</v>
       </c>
       <c r="C224" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="E224" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>324</v>
+        <v>646</v>
       </c>
       <c r="B225" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C225" t="s">
-        <v>612</v>
-      </c>
-      <c r="E225" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>311</v>
+        <v>625</v>
       </c>
       <c r="B226" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C226" t="s">
-        <v>612</v>
-      </c>
-      <c r="E226" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="B227" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C227" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>630</v>
+        <v>330</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025507077</v>
+        <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>611</v>
+        <v>331</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025507077</v>
+        <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B230" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C230" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B231" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C231" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1001024976616</v>
+      </c>
+      <c r="C232" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B232" s="3">
-        <v>1001025546822</v>
-      </c>
-      <c r="C232" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B233" s="3">
-        <v>1001025546822</v>
+        <v>1001010855247</v>
       </c>
       <c r="C233" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="B234" s="3">
-        <v>1001024976616</v>
+        <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="B235" s="3">
-        <v>1001010855247</v>
+        <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>396</v>
+        <v>232</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="B238" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>468</v>
+        <v>316</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>490</v>
+        <v>318</v>
       </c>
       <c r="B240" s="3">
-        <v>1001223296919</v>
+        <v>1001014765993</v>
       </c>
       <c r="C240" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B241" s="3">
-        <v>1001223296919</v>
+        <v>1001025166776</v>
       </c>
       <c r="C241" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B242" s="3">
-        <v>1001014765993</v>
+        <v>1001025526778</v>
       </c>
       <c r="C242" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B243" s="3">
-        <v>1001025166776</v>
+        <v>1001304236685</v>
       </c>
       <c r="C243" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B244" s="3">
-        <v>1001025526778</v>
+        <v>1001015496769</v>
       </c>
       <c r="C244" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B245" s="3">
-        <v>1001304236685</v>
+        <v>1001015496769</v>
       </c>
       <c r="C245" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B246" s="3">
-        <v>1001015496769</v>
+        <v>1001014766798</v>
       </c>
       <c r="C246" t="s">
         <v>335</v>
@@ -5109,208 +5139,208 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B247" s="3">
-        <v>1001015496769</v>
+        <v>1001015026797</v>
       </c>
       <c r="C247" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B248" s="3">
-        <v>1001014766798</v>
+        <v>1001205386222</v>
       </c>
       <c r="C248" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B249" s="3">
-        <v>1001015026797</v>
+        <v>1001092675224</v>
       </c>
       <c r="C249" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B250" s="3">
-        <v>1001205386222</v>
+        <v>1001225406223</v>
       </c>
       <c r="C250" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B251" s="3">
-        <v>1001092675224</v>
+        <v>1001300366790</v>
       </c>
       <c r="C251" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>355</v>
+        <v>482</v>
       </c>
       <c r="B252" s="3">
-        <v>1001225406223</v>
+        <v>1001304096792</v>
       </c>
       <c r="C252" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B253" s="3">
-        <v>1001300366790</v>
+        <v>1001304096792</v>
       </c>
       <c r="C253" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="B254" s="3">
-        <v>1001304096792</v>
+        <v>1001303636793</v>
       </c>
       <c r="C254" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="B255" s="3">
-        <v>1001304096792</v>
+        <v>1001303636794</v>
       </c>
       <c r="C255" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>361</v>
+        <v>502</v>
       </c>
       <c r="B256" s="3">
-        <v>1001303636793</v>
+        <v>1001303636794</v>
       </c>
       <c r="C256" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="B257" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C257" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>506</v>
+        <v>360</v>
       </c>
       <c r="B258" s="3">
-        <v>1001303636794</v>
+        <v>1001302596795</v>
       </c>
       <c r="C258" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B259" s="3">
-        <v>1001303636794</v>
+        <v>1001302596796</v>
       </c>
       <c r="C259" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B260" s="3">
-        <v>1001302596795</v>
+        <v>1001300456804</v>
       </c>
       <c r="C260" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="B261" s="3">
-        <v>1001302596796</v>
+        <v>1001300366806</v>
       </c>
       <c r="C261" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300456804</v>
+        <v>1001300366806</v>
       </c>
       <c r="C262" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300366806</v>
+        <v>1001300516803</v>
       </c>
       <c r="C263" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366806</v>
+        <v>1001300366807</v>
       </c>
       <c r="C264" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
         <v>378</v>
@@ -5318,57 +5348,57 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300366807</v>
+        <v>1001300516785</v>
       </c>
       <c r="C266" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300366807</v>
+        <v>1001300456787</v>
       </c>
       <c r="C267" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B268" s="3">
+        <v>1001300456787</v>
+      </c>
+      <c r="C268" t="s">
         <v>382</v>
-      </c>
-      <c r="B268" s="3">
-        <v>1001300516785</v>
-      </c>
-      <c r="C268" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>547</v>
+        <v>381</v>
       </c>
       <c r="B269" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C269" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300456787</v>
+        <v>1001303636793</v>
       </c>
       <c r="C270" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5376,21 +5406,21 @@
         <v>384</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300456787</v>
+        <v>1001302596795</v>
       </c>
       <c r="C271" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B272" s="3">
+        <v>1001012486332</v>
+      </c>
+      <c r="C272" t="s">
         <v>386</v>
-      </c>
-      <c r="B272" s="3">
-        <v>1001303636793</v>
-      </c>
-      <c r="C272" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,153 +5428,153 @@
         <v>387</v>
       </c>
       <c r="B273" s="3">
-        <v>1001302596795</v>
+        <v>1001012566345</v>
       </c>
       <c r="C273" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B274" s="3">
-        <v>1001012486332</v>
+        <v>1001031076528</v>
       </c>
       <c r="C274" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B275" s="3">
-        <v>1001012566345</v>
+        <v>1001020836761</v>
       </c>
       <c r="C275" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="B276" s="3">
-        <v>1001031076528</v>
+        <v>1001020836761</v>
       </c>
       <c r="C276" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B277" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C277" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="C278" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B279" s="3">
+        <v>1001020846764</v>
+      </c>
+      <c r="C279" t="s">
         <v>400</v>
-      </c>
-      <c r="B279" s="3">
-        <v>1001020836761</v>
-      </c>
-      <c r="C279" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B280" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C280" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="B281" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C281" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B282" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C282" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>502</v>
+        <v>356</v>
       </c>
       <c r="B283" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C283" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="B284" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C284" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="B285" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C285" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="B286" s="3">
-        <v>1001304096791</v>
+        <v>1001303636793</v>
       </c>
       <c r="C286" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5582,10 @@
         <v>405</v>
       </c>
       <c r="B287" s="3">
-        <v>1001304096791</v>
+        <v>1001302596795</v>
       </c>
       <c r="C287" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,183 +5593,183 @@
         <v>406</v>
       </c>
       <c r="B288" s="3">
-        <v>1001303636793</v>
+        <v>1001300516803</v>
       </c>
       <c r="C288" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B289" s="3">
-        <v>1001302596795</v>
+        <v>1001300456804</v>
       </c>
       <c r="C289" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C290" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B291" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C291" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="B292" s="3">
-        <v>1001300366807</v>
+        <v>1001023696765</v>
       </c>
       <c r="C292" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C293" t="s">
         <v>412</v>
-      </c>
-      <c r="B293" s="3">
-        <v>1001302596796</v>
-      </c>
-      <c r="C293" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C294" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C295" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C296" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C297" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B298" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C298" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B299" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C299" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B300" s="3">
-        <v>1001024976829</v>
+        <v>1001022376722</v>
       </c>
       <c r="C300" t="s">
-        <v>413</v>
+        <v>126</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B301" s="3">
-        <v>1001024976829</v>
+        <v>1001020846762</v>
       </c>
       <c r="C301" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022376722</v>
+        <v>1001020846762</v>
       </c>
       <c r="C302" t="s">
-        <v>128</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="B303" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C303" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>479</v>
+        <v>132</v>
       </c>
       <c r="B304" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C304" t="s">
         <v>436</v>
@@ -5747,10 +5777,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="B305" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C305" t="s">
         <v>436</v>
@@ -5758,495 +5788,498 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>134</v>
+        <v>577</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022656853</v>
+        <v>1001022657075</v>
       </c>
       <c r="C306" t="s">
-        <v>439</v>
+        <v>609</v>
+      </c>
+      <c r="E306" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022656853</v>
+        <v>1001022657075</v>
       </c>
       <c r="C307" t="s">
-        <v>439</v>
+        <v>609</v>
+      </c>
+      <c r="E307" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="B308" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C308" t="s">
-        <v>614</v>
-      </c>
-      <c r="E308" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="B309" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C309" t="s">
-        <v>614</v>
-      </c>
-      <c r="E309" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>650</v>
+        <v>435</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022657075</v>
+        <v>1001022656948</v>
       </c>
       <c r="C310" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B311" s="3">
-        <v>1001022657075</v>
+        <v>1001022657073</v>
       </c>
       <c r="C311" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>438</v>
+        <v>636</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022656948</v>
+        <v>1001022657073</v>
       </c>
       <c r="C312" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>619</v>
+        <v>441</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C313" t="s">
-        <v>620</v>
+        <v>615</v>
+      </c>
+      <c r="E313" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>641</v>
+        <v>458</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022657073</v>
+        <v>1001020836759</v>
       </c>
       <c r="C314" t="s">
-        <v>620</v>
+        <v>443</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B315" s="3">
-        <v>1001022657073</v>
+        <v>1001020836759</v>
       </c>
       <c r="C315" t="s">
-        <v>620</v>
-      </c>
-      <c r="E315" t="s">
-        <v>633</v>
+        <v>443</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B316" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C316" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="B317" s="3">
-        <v>1001020836759</v>
+        <v>1001023856870</v>
       </c>
       <c r="C317" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B318" s="3">
-        <v>1001020836759</v>
+        <v>1001013956426</v>
       </c>
       <c r="C318" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B319" s="3">
-        <v>1001023856870</v>
+        <v>1001093345495</v>
       </c>
       <c r="C319" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1001022656868</v>
+      </c>
+      <c r="C320" t="s">
         <v>463</v>
       </c>
-      <c r="B320" s="3">
-        <v>1001013956426</v>
-      </c>
-      <c r="C320" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B321" s="3">
-        <v>1001093345495</v>
+        <v>1001022656868</v>
       </c>
       <c r="C321" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>494</v>
+        <v>174</v>
       </c>
       <c r="B322" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C322" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>466</v>
+        <v>193</v>
       </c>
       <c r="B323" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C323" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="B324" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C324" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>195</v>
+        <v>466</v>
       </c>
       <c r="B325" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C325" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B326" s="3">
-        <v>1001034065698</v>
+        <v>1001084217090</v>
       </c>
       <c r="C326" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="E326" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B327" s="3">
-        <v>1001034065698</v>
+        <v>1001015646861</v>
       </c>
       <c r="C327" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B328" s="3">
-        <v>1001084216206</v>
+        <v>1001015646861</v>
       </c>
       <c r="C328" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="B329" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C329" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B330" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C330" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B331" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C331" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B332" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C332" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B333" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C333" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B334" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C334" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>482</v>
+        <v>216</v>
       </c>
       <c r="B335" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C335" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B336" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C336" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="B337" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C337" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>496</v>
+        <v>317</v>
       </c>
       <c r="B338" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C338" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B339" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C339" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="B340" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C340" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B341" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C341" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B342" s="3">
-        <v>1001203146834</v>
+        <v>1001300456788</v>
       </c>
       <c r="C342" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B343" s="3">
-        <v>1001203146834</v>
+        <v>1001022556837</v>
       </c>
       <c r="C343" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B344" s="3">
-        <v>1001300456788</v>
+        <v>1001300516786</v>
       </c>
       <c r="C344" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B345" s="3">
-        <v>1001022556837</v>
+        <v>1001214196459</v>
       </c>
       <c r="C345" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="B346" s="3">
-        <v>1001300516786</v>
+        <v>1001092436495</v>
       </c>
       <c r="C346" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="B347" s="3">
-        <v>1001214196459</v>
+        <v>1001092436495</v>
       </c>
       <c r="C347" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="B348" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C348" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
       <c r="B349" s="3">
-        <v>1001092436495</v>
+        <v>1001025526901</v>
       </c>
       <c r="C349" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,7 +6287,7 @@
         <v>509</v>
       </c>
       <c r="B350" s="3">
-        <v>1001092436495</v>
+        <v>1001025546931</v>
       </c>
       <c r="C350" t="s">
         <v>510</v>
@@ -6262,167 +6295,167 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B351" s="3">
-        <v>1001025526901</v>
+        <v>1001010016324</v>
       </c>
       <c r="C351" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C352" t="s">
         <v>513</v>
-      </c>
-      <c r="B352" s="3">
-        <v>1001025546931</v>
-      </c>
-      <c r="C352" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B353" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C353" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="B354" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C354" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="B355" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C355" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B356" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C356" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B357" s="3">
-        <v>1001025766909</v>
+        <v>1001010014558</v>
       </c>
       <c r="C357" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B358" s="3">
+        <v>1001010014558</v>
+      </c>
+      <c r="C358" t="s">
         <v>518</v>
-      </c>
-      <c r="B358" s="3">
-        <v>1001025766909</v>
-      </c>
-      <c r="C358" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B359" s="3">
-        <v>1001010014558</v>
+        <v>1001012596802</v>
       </c>
       <c r="C359" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B360" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C360" t="s">
         <v>521</v>
-      </c>
-      <c r="B360" s="3">
-        <v>1001010014558</v>
-      </c>
-      <c r="C360" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B361" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C361" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B362" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C362" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="B363" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C363" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B364" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C364" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="B365" s="3">
-        <v>1001012596801</v>
+        <v>1001062353684</v>
       </c>
       <c r="C365" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,7 +6463,7 @@
         <v>526</v>
       </c>
       <c r="B366" s="3">
-        <v>1001012596801</v>
+        <v>1001010014555</v>
       </c>
       <c r="C366" t="s">
         <v>527</v>
@@ -6441,7 +6474,7 @@
         <v>528</v>
       </c>
       <c r="B367" s="3">
-        <v>1001062353684</v>
+        <v>1001083424691</v>
       </c>
       <c r="C367" t="s">
         <v>529</v>
@@ -6452,7 +6485,7 @@
         <v>530</v>
       </c>
       <c r="B368" s="3">
-        <v>1001010014555</v>
+        <v>1001190765679</v>
       </c>
       <c r="C368" t="s">
         <v>531</v>
@@ -6463,7 +6496,7 @@
         <v>532</v>
       </c>
       <c r="B369" s="3">
-        <v>1001083424691</v>
+        <v>1001085636200</v>
       </c>
       <c r="C369" t="s">
         <v>533</v>
@@ -6474,7 +6507,7 @@
         <v>534</v>
       </c>
       <c r="B370" s="3">
-        <v>1001190765679</v>
+        <v>1001020836253</v>
       </c>
       <c r="C370" t="s">
         <v>535</v>
@@ -6485,7 +6518,7 @@
         <v>536</v>
       </c>
       <c r="B371" s="3">
-        <v>1001085636200</v>
+        <v>1001084226492</v>
       </c>
       <c r="C371" t="s">
         <v>537</v>
@@ -6493,71 +6526,71 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="B372" s="3">
-        <v>1001020836253</v>
+        <v>1001223297092</v>
       </c>
       <c r="C372" t="s">
-        <v>539</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B373" s="3">
-        <v>1001084226492</v>
+        <v>1001223297092</v>
       </c>
       <c r="C373" t="s">
-        <v>541</v>
+        <v>627</v>
+      </c>
+      <c r="E373" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>642</v>
+        <v>540</v>
       </c>
       <c r="B374" s="3">
-        <v>1001223297092</v>
+        <v>1001053944786</v>
       </c>
       <c r="C374" t="s">
-        <v>632</v>
+        <v>541</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B375" s="3">
-        <v>1001223297092</v>
+        <v>1001010016839</v>
       </c>
       <c r="C375" t="s">
-        <v>632</v>
-      </c>
-      <c r="E375" t="s">
-        <v>633</v>
+        <v>545</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B376" s="3">
-        <v>1001053944786</v>
+        <v>1001023857038</v>
       </c>
       <c r="C376" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B377" s="3">
-        <v>1001010016839</v>
+        <v>1001040434903</v>
       </c>
       <c r="C377" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -6565,118 +6598,118 @@
         <v>555</v>
       </c>
       <c r="B378" s="3">
-        <v>1001023857038</v>
+        <v>1001080216842</v>
       </c>
       <c r="C378" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B379" s="3">
-        <v>1001040434903</v>
+        <v>1001022467082</v>
       </c>
       <c r="C379" t="s">
-        <v>557</v>
+        <v>611</v>
+      </c>
+      <c r="E379" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B380" s="3">
-        <v>1001080216842</v>
+        <v>1001022467082</v>
       </c>
       <c r="C380" t="s">
-        <v>560</v>
+        <v>611</v>
+      </c>
+      <c r="E380" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="B381" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C381" t="s">
-        <v>616</v>
-      </c>
-      <c r="E381" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="B382" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C382" t="s">
-        <v>616</v>
-      </c>
-      <c r="E382" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>653</v>
+        <v>610</v>
       </c>
       <c r="B383" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C383" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B384" s="3">
-        <v>1001022467082</v>
+        <v>1001035277059</v>
       </c>
       <c r="C384" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="B385" s="3">
-        <v>1001022467082</v>
+        <v>1001035277059</v>
       </c>
       <c r="C385" t="s">
-        <v>616</v>
+        <v>629</v>
+      </c>
+      <c r="E385" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="B386" s="3">
-        <v>1001035277059</v>
+        <v>1001062353680</v>
       </c>
       <c r="C386" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B387" s="3">
-        <v>1001035277059</v>
+        <v>1001061971146</v>
       </c>
       <c r="C387" t="s">
-        <v>634</v>
-      </c>
-      <c r="E387" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -6684,7 +6717,7 @@
         <v>583</v>
       </c>
       <c r="B388" s="3">
-        <v>1001062353680</v>
+        <v>1001225636201</v>
       </c>
       <c r="C388" t="s">
         <v>584</v>
@@ -6695,7 +6728,7 @@
         <v>585</v>
       </c>
       <c r="B389" s="3">
-        <v>1001061971146</v>
+        <v>1001020836724</v>
       </c>
       <c r="C389" t="s">
         <v>586</v>
@@ -6706,7 +6739,7 @@
         <v>587</v>
       </c>
       <c r="B390" s="3">
-        <v>1001225636201</v>
+        <v>1001095227035</v>
       </c>
       <c r="C390" t="s">
         <v>588</v>
@@ -6714,255 +6747,255 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B391" s="3">
+        <v>1001023857038</v>
+      </c>
+      <c r="C391" t="s">
         <v>590</v>
-      </c>
-      <c r="B391" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C391" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B392" s="3">
+        <v>1001025027040</v>
+      </c>
+      <c r="C392" t="s">
         <v>592</v>
-      </c>
-      <c r="B392" s="3">
-        <v>1001095227035</v>
-      </c>
-      <c r="C392" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B393" s="3">
+        <v>1001223297103</v>
+      </c>
+      <c r="C393" t="s">
         <v>594</v>
-      </c>
-      <c r="B393" s="3">
-        <v>1001023857038</v>
-      </c>
-      <c r="C393" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B394" s="3">
-        <v>1001025027040</v>
+        <v>1001223297103</v>
       </c>
       <c r="C394" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="B395" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C395" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B396" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C396" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="B397" s="3">
-        <v>1001223297103</v>
+        <v>1001010032675</v>
       </c>
       <c r="C397" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="B398" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C398" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B399" s="3">
-        <v>1001010032675</v>
+        <v>1001035937001</v>
       </c>
       <c r="C399" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B400" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C400" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="B401" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C401" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="B402" s="3">
-        <v>1001035937001</v>
+        <v>1001084217090</v>
       </c>
       <c r="C402" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="B403" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C403" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="B404" s="3">
-        <v>1001084217090</v>
+        <v>1001022377066</v>
       </c>
       <c r="C404" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B405" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C405" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="B406" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C406" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B407" s="3">
-        <v>1001022377066</v>
+        <v>1001010027126</v>
       </c>
       <c r="C407" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B408" s="3">
-        <v>1001010027126</v>
+        <v>1001010027125</v>
       </c>
       <c r="C408" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B409" s="3">
-        <v>1001010027125</v>
+        <v>1001223297053</v>
       </c>
       <c r="C409" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B410" s="3">
-        <v>1001223297053</v>
+        <v>1001093316411</v>
       </c>
       <c r="C410" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B411" s="3">
-        <v>1001093316411</v>
+        <v>1001025526962</v>
       </c>
       <c r="C411" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B412" s="3">
-        <v>1001025526962</v>
+        <v>1001025886987</v>
       </c>
       <c r="C412" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B413" s="3">
-        <v>1001025886987</v>
+        <v>1001204447052</v>
       </c>
       <c r="C413" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E140C-016E-4E25-A6B7-88149EB9B973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39802275-1902-44AA-9AC6-F9EC96245004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="667">
   <si>
     <t>1С</t>
   </si>
@@ -2011,6 +2011,30 @@
   </si>
   <si>
     <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
+  </si>
+  <si>
+    <t>7087 ШПИК С ЧЕСНОК.И ПЕРЦЕМ к/в в/у 0.3кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИК С ЧЕСНОК.И ПЕРЦЕМ к/в в/у 0.3кг_50c</t>
+  </si>
+  <si>
+    <t>7105 МИЛАНО с/к с/н мгс 1/90 12шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МИЛАНО с/к с/н мгс 1/90 12шт.</t>
+  </si>
+  <si>
+    <t>7106 ТОСКАНО с/к с/н мгс 1/90 12шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ТОСКАНО с/к с/н мгс 1/90 12шт.</t>
+  </si>
+  <si>
+    <t>7107 САН-РЕМО с/в с/н мгс 1/90 12шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САН-РЕМО с/в с/н мгс 1/90 12шт.</t>
   </si>
 </sst>
 </file>
@@ -2365,11 +2389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,6 +7022,50 @@
         <v>650</v>
       </c>
     </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B414" s="3">
+        <v>1001084227087</v>
+      </c>
+      <c r="C414" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B415" s="3">
+        <v>1001203207105</v>
+      </c>
+      <c r="C415" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416" s="3">
+        <v>1001205447106</v>
+      </c>
+      <c r="C416" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1001205467107</v>
+      </c>
+      <c r="C417" t="s">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C413" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39802275-1902-44AA-9AC6-F9EC96245004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEDC68-F0CC-45B3-B3D3-D007DCE524F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$425</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="677">
   <si>
     <t>1С</t>
   </si>
@@ -2035,6 +2035,36 @@
   </si>
   <si>
     <t>САН-РЕМО с/в с/н мгс 1/90 12шт.</t>
+  </si>
+  <si>
+    <t>6877 В ОБВЯЗКЕ вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>В ОБВЯЗКЕ вар п/о</t>
+  </si>
+  <si>
+    <t>7154 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7169 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7173 БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7090 СВИНИНА ПО-ДОМ. к/в мл/к в/у 0.3кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7149 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6888 С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>7166 СЕРВЕЛТ ОХОТНИЧИЙ ПМ в/к в/у_50с  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2389,11 +2419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F417"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,95 +2705,95 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>676</v>
       </c>
       <c r="B25" s="3">
-        <v>1001062505483</v>
+        <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>1001051875544</v>
+        <v>1001062505483</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1001193115682</v>
+        <v>1001051875544</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
-        <v>1001061975706</v>
+        <v>1001193115682</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
-        <v>1001063145708</v>
+        <v>1001061975706</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
@@ -2774,73 +2804,73 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
-        <v>1001220286279</v>
+        <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3">
-        <v>1001084216206</v>
+        <v>1001220286279</v>
       </c>
       <c r="C38" t="s">
-        <v>395</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>491</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3">
-        <v>1001022556069</v>
+        <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>481</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>491</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
@@ -2848,438 +2878,438 @@
       <c r="C40" t="s">
         <v>481</v>
       </c>
-      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3">
-        <v>1001304506684</v>
+        <v>1001012506353</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3">
-        <v>1001303056692</v>
+        <v>1001304506684</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B46" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C46" t="s">
-        <v>658</v>
-      </c>
-      <c r="E46" t="s">
-        <v>653</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>658</v>
+      </c>
+      <c r="E47" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="B48" s="3">
-        <v>1001024636438</v>
+        <v>1001303637149</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3">
-        <v>1001234146448</v>
+        <v>1001013956426</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3">
-        <v>1001202506453</v>
+        <v>1001024636438</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B51" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B52" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3">
-        <v>1001025176475</v>
+        <v>1001202506453</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B54" s="3">
-        <v>1001301876697</v>
+        <v>1001201976454</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" s="3">
-        <v>1001024636517</v>
+        <v>1001025176475</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3">
-        <v>1001031076527</v>
+        <v>1001301876697</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B57" s="3">
-        <v>1001304506562</v>
+        <v>1001024636517</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B58" s="3">
-        <v>1001020846563</v>
+        <v>1001031076527</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3">
-        <v>1001020836589</v>
+        <v>1001304506562</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B60" s="3">
-        <v>6751</v>
+        <v>1001020846563</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3">
-        <v>1001010016592</v>
+        <v>1001020836589</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3">
-        <v>1001010026594</v>
+        <v>6751</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B63" s="3">
-        <v>1001022296601</v>
+        <v>1001010016592</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3">
-        <v>1001031896648</v>
+        <v>1001010026594</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3">
-        <v>1001035266650</v>
+        <v>1001022296601</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66" s="3">
-        <v>1001305256658</v>
+        <v>1001031896648</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3">
-        <v>1001010016593</v>
+        <v>1001035266650</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B68" s="3">
-        <v>1001010026595</v>
+        <v>1001305256658</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1001010016593</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B71" s="3">
         <v>1001010036597</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B72" s="3">
         <v>1001020886646</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B73" s="3">
         <v>1001305306566</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1001300387154</v>
-      </c>
-      <c r="C73" t="s">
-        <v>656</v>
-      </c>
-      <c r="E73" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B74" s="3">
-        <v>1001303987169</v>
+        <v>1001305306566</v>
       </c>
       <c r="C74" t="s">
-        <v>655</v>
-      </c>
-      <c r="E74" t="s">
-        <v>653</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>241</v>
+        <v>669</v>
       </c>
       <c r="B75" s="3">
-        <v>1001303106773</v>
+        <v>1001300387154</v>
       </c>
       <c r="C75" t="s">
-        <v>347</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B76" s="5">
-        <v>1001303106773</v>
+        <v>123</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1001300387154</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>656</v>
+      </c>
+      <c r="E76" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1001303106773</v>
+        <v>670</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1001303987169</v>
       </c>
       <c r="C77" t="s">
-        <v>347</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>655</v>
+      </c>
+      <c r="E78" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="B79" s="3">
         <v>1001303106773</v>
@@ -3290,9 +3320,9 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B80" s="3">
+        <v>354</v>
+      </c>
+      <c r="B80" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C80" t="s">
@@ -3301,9 +3331,9 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B81" s="3">
+        <v>276</v>
+      </c>
+      <c r="B81" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
@@ -3312,529 +3342,517 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="B82" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="B83" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>392</v>
       </c>
       <c r="B84" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="B85" s="3">
-        <v>1001302277173</v>
+        <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>657</v>
-      </c>
-      <c r="E85" t="s">
-        <v>653</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="B86" s="3">
-        <v>1001012426268</v>
+        <v>1001012566392</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="B87" s="3">
-        <v>1001024906041</v>
+        <v>1001012566392</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B88" s="3">
-        <v>1001011086247</v>
+        <v>1001012566392</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>671</v>
       </c>
       <c r="B89" s="3">
-        <v>1001014486158</v>
+        <v>1001302277173</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B90" s="3">
-        <v>1001015356259</v>
+        <v>1001302277173</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>657</v>
+      </c>
+      <c r="E90" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B91" s="3">
-        <v>1001012816716</v>
+        <v>1001012426268</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="B92" s="3">
-        <v>1001020966227</v>
+        <v>1001024906041</v>
       </c>
       <c r="C92" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B93" s="3">
-        <v>1001020966227</v>
+        <v>1001011086247</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B94" s="3">
-        <v>1001022726303</v>
+        <v>1001014486158</v>
       </c>
       <c r="C94" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="B95" s="3">
-        <v>1001022726303</v>
+        <v>1001015356259</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022726303</v>
+        <v>1001012816716</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022466726</v>
+        <v>1001020966227</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="B99" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022376722</v>
+        <v>1001022726303</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>578</v>
+        <v>346</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022377070</v>
+        <v>1001022726303</v>
       </c>
       <c r="C101" t="s">
-        <v>613</v>
-      </c>
-      <c r="E101" t="s">
-        <v>628</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022377070</v>
+        <v>1001022726303</v>
       </c>
       <c r="C102" t="s">
-        <v>613</v>
-      </c>
-      <c r="E102" t="s">
-        <v>628</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>644</v>
+        <v>113</v>
       </c>
       <c r="B103" s="3">
-        <v>1001022377070</v>
+        <v>1001022466726</v>
       </c>
       <c r="C103" t="s">
-        <v>613</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>612</v>
+        <v>155</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022377070</v>
+        <v>1001020966144</v>
       </c>
       <c r="C104" t="s">
-        <v>613</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022376955</v>
+        <v>1001022376722</v>
       </c>
       <c r="C105" t="s">
-        <v>570</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>253</v>
+        <v>578</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022246661</v>
+        <v>1001022377070</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>613</v>
+      </c>
+      <c r="E106" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>325</v>
+        <v>576</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022246661</v>
+        <v>1001022377070</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>613</v>
+      </c>
+      <c r="E107" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>644</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022246661</v>
+        <v>1001022377070</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>612</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022246713</v>
+        <v>1001022377070</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="3">
-        <v>1001025166241</v>
+        <v>1001022376955</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="B111" s="3">
-        <v>6606</v>
+        <v>1001022246661</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="B112" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B113" s="3">
-        <v>1001303636301</v>
+        <v>1001022246661</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B114" s="3">
-        <v>1001303636302</v>
+        <v>1001022246713</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B115" s="3">
-        <v>1001305196215</v>
+        <v>1001025166241</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B116" s="3">
-        <v>1001301876212</v>
+        <v>6606</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B117" s="3">
-        <v>1001301876213</v>
+        <v>1001035326217</v>
       </c>
       <c r="C117" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B118" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="B119" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B120" s="3">
-        <v>1001225416228</v>
+        <v>1001305196215</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B121" s="3">
-        <v>6225</v>
+        <v>1001301876212</v>
       </c>
       <c r="C121" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B122" s="3">
-        <v>1001022377066</v>
+        <v>1001301876213</v>
       </c>
       <c r="C122" t="s">
-        <v>603</v>
-      </c>
-      <c r="E122" t="s">
-        <v>628</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B123" s="3">
-        <v>1001022377066</v>
+        <v>1001303636302</v>
       </c>
       <c r="C123" t="s">
-        <v>603</v>
-      </c>
-      <c r="E123" t="s">
-        <v>628</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B124" s="3">
-        <v>1001022377066</v>
+        <v>6645</v>
       </c>
       <c r="C124" t="s">
-        <v>603</v>
-      </c>
-      <c r="E124" t="s">
-        <v>628</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B125" s="3">
-        <v>3297</v>
+        <v>1001225416228</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022467080</v>
+        <v>6225</v>
       </c>
       <c r="C126" t="s">
-        <v>605</v>
-      </c>
-      <c r="E126" t="s">
-        <v>628</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C127" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E127" t="s">
         <v>628</v>
@@ -3842,541 +3860,553 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>647</v>
+        <v>217</v>
       </c>
       <c r="B128" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C128" t="s">
-        <v>605</v>
+        <v>603</v>
+      </c>
+      <c r="E128" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>624</v>
+        <v>175</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C129" t="s">
-        <v>605</v>
+        <v>603</v>
+      </c>
+      <c r="E129" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>604</v>
+        <v>172</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022467080</v>
+        <v>3297</v>
       </c>
       <c r="C130" t="s">
-        <v>605</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="B131" s="3">
-        <v>1001021966602</v>
+        <v>1001022467080</v>
       </c>
       <c r="C131" t="s">
-        <v>291</v>
+        <v>605</v>
+      </c>
+      <c r="E131" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B132" s="3">
-        <v>6233</v>
+        <v>1001022467080</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>605</v>
+      </c>
+      <c r="E132" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>271</v>
+        <v>647</v>
       </c>
       <c r="B133" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>493</v>
+        <v>624</v>
       </c>
       <c r="B134" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C134" t="s">
-        <v>448</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>496</v>
+        <v>604</v>
       </c>
       <c r="B135" s="3">
-        <v>1001012816341</v>
+        <v>1001022467080</v>
       </c>
       <c r="C135" t="s">
-        <v>448</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B136" s="3">
-        <v>1001012816341</v>
+        <v>1001021966602</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B137" s="3">
-        <v>6750</v>
+        <v>6233</v>
       </c>
       <c r="C137" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="B138" s="3">
-        <v>6751</v>
+        <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>92</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="B139" s="3">
-        <v>5982</v>
+        <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>559</v>
+        <v>496</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022657074</v>
+        <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>630</v>
-      </c>
-      <c r="E140" t="s">
-        <v>628</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="B141" s="3">
-        <v>1001022657074</v>
+        <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>630</v>
-      </c>
-      <c r="E141" t="s">
-        <v>628</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>651</v>
+        <v>181</v>
       </c>
       <c r="B142" s="3">
-        <v>1001022657074</v>
+        <v>6750</v>
       </c>
       <c r="C142" t="s">
-        <v>630</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B143" s="3">
-        <v>1001022656854</v>
+        <v>6751</v>
       </c>
       <c r="C143" t="s">
-        <v>438</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="3">
+        <v>5982</v>
+      </c>
+      <c r="C144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1001022657074</v>
+      </c>
+      <c r="C145" t="s">
+        <v>630</v>
+      </c>
+      <c r="E145" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1001022657074</v>
+      </c>
+      <c r="C146" t="s">
+        <v>630</v>
+      </c>
+      <c r="E146" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1001022657074</v>
+      </c>
+      <c r="C147" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1001022656854</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B149" s="3">
         <v>1001094966025</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C149" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B150" s="3">
         <v>6025</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C150" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B151" s="3">
         <v>6221</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C151" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B152" s="3">
         <v>1001205376221</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C152" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B153" s="3">
         <v>1001022373812</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C153" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B154" s="3">
         <v>1001100606827</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C154" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B155" s="3">
         <v>1001100606827</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C155" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B156" s="3">
         <v>1001100616826</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C156" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B157" s="3">
         <v>1001100616826</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C157" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B158" s="3">
         <v>1001100626828</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C158" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B159" s="3">
         <v>1001100626828</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C159" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B160" s="3">
         <v>1001035026308</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C160" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B156" s="3">
-        <v>1001014486159</v>
-      </c>
-      <c r="C156" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1001014486159</v>
-      </c>
-      <c r="C157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" s="3">
-        <v>1001035326217</v>
-      </c>
-      <c r="C158" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1001012426220</v>
-      </c>
-      <c r="C159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B160" s="3">
-        <v>1001012426220</v>
-      </c>
-      <c r="C160" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>205</v>
+        <v>563</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022466236</v>
+        <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B162" s="3">
-        <v>1001021966602</v>
+        <v>1001014486159</v>
       </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022296656</v>
+        <v>1001035326217</v>
       </c>
       <c r="C163" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>211</v>
+        <v>511</v>
       </c>
       <c r="B164" s="3">
-        <v>1001304506684</v>
+        <v>1001012426220</v>
       </c>
       <c r="C164" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B165" s="3">
-        <v>1001301876697</v>
+        <v>1001012426220</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022246713</v>
+        <v>1001022466236</v>
       </c>
       <c r="C166" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B167" s="3">
-        <v>1001020846751</v>
+        <v>1001021966602</v>
       </c>
       <c r="C167" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022725819</v>
+        <v>1001022296656</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B169" s="3">
-        <v>1001012825337</v>
+        <v>1001304506684</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012815336</v>
+        <v>1001301876697</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B171" s="3">
-        <v>1001234146448</v>
+        <v>1001022246713</v>
       </c>
       <c r="C171" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B172" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B173" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B174" s="3">
-        <v>1001301876213</v>
+        <v>1001012825337</v>
       </c>
       <c r="C174" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B175" s="3">
-        <v>1001035026308</v>
+        <v>1001012815336</v>
       </c>
       <c r="C175" t="s">
-        <v>414</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B176" s="3">
         <v>1001234146448</v>
@@ -4387,695 +4417,695 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B177" s="3">
-        <v>1001201976454</v>
+        <v>1001022725819</v>
       </c>
       <c r="C177" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B178" s="3">
-        <v>1001025176475</v>
+        <v>1001092676027</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B179" s="3">
-        <v>1001012456498</v>
+        <v>1001301876213</v>
       </c>
       <c r="C179" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B180" s="3">
-        <v>1001010036596</v>
+        <v>1001035026308</v>
       </c>
       <c r="C180" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>573</v>
+        <v>231</v>
       </c>
       <c r="B181" s="3">
-        <v>1001033856608</v>
+        <v>1001234146448</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>567</v>
+        <v>233</v>
       </c>
       <c r="B182" s="3">
-        <v>1001033856608</v>
+        <v>1001201976454</v>
       </c>
       <c r="C182" t="s">
-        <v>565</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>574</v>
+        <v>234</v>
       </c>
       <c r="B183" s="3">
-        <v>1001033856609</v>
+        <v>1001025176475</v>
       </c>
       <c r="C183" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B184" s="3">
-        <v>1001033856609</v>
+        <v>1001012456498</v>
       </c>
       <c r="C184" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B185" s="3">
-        <v>1001093345495</v>
+        <v>1001010036596</v>
       </c>
       <c r="C185" t="s">
-        <v>449</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>244</v>
+        <v>573</v>
       </c>
       <c r="B186" s="3">
-        <v>6550</v>
+        <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>245</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>246</v>
+        <v>567</v>
       </c>
       <c r="B187" s="3">
-        <v>1001304506684</v>
+        <v>1001033856608</v>
       </c>
       <c r="C187" t="s">
-        <v>60</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>247</v>
+        <v>574</v>
       </c>
       <c r="B188" s="3">
-        <v>1001010113248</v>
+        <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>422</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3">
-        <v>1001063926780</v>
+        <v>1001033856609</v>
       </c>
       <c r="C189" t="s">
-        <v>423</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B190" s="3">
-        <v>6586</v>
+        <v>1001093345495</v>
       </c>
       <c r="C190" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B191" s="3">
-        <v>1001303636467</v>
+        <v>6550</v>
       </c>
       <c r="C191" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B192" s="3">
-        <v>1001304496701</v>
+        <v>1001304506684</v>
       </c>
       <c r="C192" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B193" s="3">
-        <v>6144</v>
+        <v>1001010113248</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="B194" s="3">
-        <v>1001022725819</v>
+        <v>1001063926780</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B195" s="3">
-        <v>1001022373812</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B196" s="3">
-        <v>1001024906062</v>
+        <v>1001303636467</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B197" s="3">
-        <v>1001300386683</v>
+        <v>1001304496701</v>
       </c>
       <c r="C197" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B198" s="3">
-        <v>1001303986689</v>
+        <v>6144</v>
       </c>
       <c r="C198" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B199" s="3">
-        <v>1001303056692</v>
+        <v>1001022725819</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B200" s="3">
-        <v>1001301876697</v>
+        <v>1001022373812</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B201" s="3">
-        <v>1001302276666</v>
+        <v>1001024906062</v>
       </c>
       <c r="C201" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B202" s="3">
-        <v>1001012634574</v>
+        <v>1001300386683</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B203" s="3">
-        <v>1001092485452</v>
+        <v>1001303986689</v>
       </c>
       <c r="C203" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B204" s="3">
-        <v>1001020966144</v>
+        <v>1001303056692</v>
       </c>
       <c r="C204" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B205" s="3">
-        <v>6586</v>
+        <v>1001301876697</v>
       </c>
       <c r="C205" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B206" s="3">
-        <v>1001304496701</v>
+        <v>1001302276666</v>
       </c>
       <c r="C206" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B207" s="3">
-        <v>1001063655015</v>
+        <v>1001012634574</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1001092485452</v>
+      </c>
+      <c r="C208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1001020966144</v>
+      </c>
+      <c r="C209" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B210" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C210" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1001304496701</v>
+      </c>
+      <c r="C211" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1001063655015</v>
+      </c>
+      <c r="C212" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B213" s="3">
         <v>1001060763287</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B214" s="3">
         <v>1001225416228</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C214" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B215" s="3">
         <v>1001032736550</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C215" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B216" s="3">
         <v>6758</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C216" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B217" s="3">
         <v>1001020965976</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C217" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B218" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C218" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B219" s="3">
         <v>1001094896026</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C219" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B220" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C220" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B221" s="3">
         <v>1001215576586</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C221" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B222" s="3">
         <v>1001092436470</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C222" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B223" s="3">
         <v>1001203146555</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C223" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B224" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C224" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B225" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C225" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B226" s="3">
         <v>1001014765993</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C226" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B227" s="3">
         <v>1001025166776</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C227" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B228" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C228" t="s">
         <v>607</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E228" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B229" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C229" t="s">
         <v>607</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E229" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B230" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C230" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B231" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C231" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B232" s="3">
         <v>1001025507077</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C232" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B233" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C233" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B234" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C234" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B235" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C235" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B236" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C236" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B237" s="3">
         <v>1001024976616</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C237" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B238" s="3">
         <v>1001010855247</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C238" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B234" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C234" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B235" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C235" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B236" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C236" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B237" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C237" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B238" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C238" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
@@ -5084,1603 +5114,1594 @@
         <v>396</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="B240" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C240" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025166776</v>
+        <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>322</v>
+        <v>464</v>
       </c>
       <c r="B242" s="3">
-        <v>1001025526778</v>
+        <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>323</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>326</v>
+        <v>486</v>
       </c>
       <c r="B243" s="3">
-        <v>1001304236685</v>
+        <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B244" s="3">
-        <v>1001015496769</v>
+        <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B245" s="3">
-        <v>1001015496769</v>
+        <v>1001014765993</v>
       </c>
       <c r="C245" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B246" s="3">
-        <v>1001014766798</v>
+        <v>1001025166776</v>
       </c>
       <c r="C246" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B247" s="3">
-        <v>1001015026797</v>
+        <v>1001025526778</v>
       </c>
       <c r="C247" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B248" s="3">
-        <v>1001205386222</v>
+        <v>1001304236685</v>
       </c>
       <c r="C248" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B249" s="3">
-        <v>1001092675224</v>
+        <v>1001015496769</v>
       </c>
       <c r="C249" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B250" s="3">
-        <v>1001225406223</v>
+        <v>1001015496769</v>
       </c>
       <c r="C250" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300366790</v>
+        <v>1001014766798</v>
       </c>
       <c r="C251" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>482</v>
+        <v>339</v>
       </c>
       <c r="B252" s="3">
-        <v>1001304096792</v>
+        <v>1001015026797</v>
       </c>
       <c r="C252" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B253" s="3">
-        <v>1001304096792</v>
+        <v>1001205386222</v>
       </c>
       <c r="C253" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636793</v>
+        <v>1001092675224</v>
       </c>
       <c r="C254" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636794</v>
+        <v>1001225406223</v>
       </c>
       <c r="C255" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>502</v>
+        <v>355</v>
       </c>
       <c r="B256" s="3">
-        <v>1001303636794</v>
+        <v>1001300366790</v>
       </c>
       <c r="C256" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>359</v>
+        <v>482</v>
       </c>
       <c r="B257" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C257" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B258" s="3">
-        <v>1001302596795</v>
+        <v>1001304096792</v>
       </c>
       <c r="C258" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B259" s="3">
-        <v>1001302596796</v>
+        <v>1001303636793</v>
       </c>
       <c r="C259" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300456804</v>
+        <v>1001303636794</v>
       </c>
       <c r="C260" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366806</v>
+        <v>1001303636794</v>
       </c>
       <c r="C261" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366806</v>
+        <v>1001303636794</v>
       </c>
       <c r="C262" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C263" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366807</v>
+        <v>1001302596796</v>
       </c>
       <c r="C264" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C265" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300516785</v>
+        <v>1001300366806</v>
       </c>
       <c r="C266" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>543</v>
+        <v>363</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300456787</v>
+        <v>1001300366806</v>
       </c>
       <c r="C267" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>558</v>
+        <v>364</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300456787</v>
+        <v>1001300516803</v>
       </c>
       <c r="C268" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C269" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B270" s="3">
-        <v>1001303636793</v>
+        <v>1001300366807</v>
       </c>
       <c r="C270" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B271" s="3">
-        <v>1001302596795</v>
+        <v>1001300516785</v>
       </c>
       <c r="C271" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="B272" s="3">
-        <v>1001012486332</v>
+        <v>1001300456787</v>
       </c>
       <c r="C272" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>387</v>
+        <v>558</v>
       </c>
       <c r="B273" s="3">
-        <v>1001012566345</v>
+        <v>1001300456787</v>
       </c>
       <c r="C273" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B274" s="3">
-        <v>1001031076528</v>
+        <v>1001300456787</v>
       </c>
       <c r="C274" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B275" s="3">
-        <v>1001020836761</v>
+        <v>1001303636793</v>
       </c>
       <c r="C275" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020836761</v>
+        <v>1001302596795</v>
       </c>
       <c r="C276" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B277" s="3">
-        <v>1001020836761</v>
+        <v>1001012486332</v>
       </c>
       <c r="C277" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020846764</v>
+        <v>1001012566345</v>
       </c>
       <c r="C278" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="B279" s="3">
-        <v>1001020846764</v>
+        <v>1001031076528</v>
       </c>
       <c r="C279" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B280" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C280" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="B281" s="3">
-        <v>1001300366790</v>
+        <v>1001020836761</v>
       </c>
       <c r="C281" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B282" s="3">
-        <v>1001300366790</v>
+        <v>1001020836761</v>
       </c>
       <c r="C282" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="B283" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C283" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="B284" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C284" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B285" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C285" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>403</v>
+        <v>498</v>
       </c>
       <c r="B286" s="3">
-        <v>1001303636793</v>
+        <v>1001300366790</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B287" s="3">
-        <v>1001302596795</v>
+        <v>1001300366790</v>
       </c>
       <c r="C287" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300516803</v>
+        <v>1001304096791</v>
       </c>
       <c r="C288" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300456804</v>
+        <v>1001304096791</v>
       </c>
       <c r="C289" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300366807</v>
+        <v>1001304096791</v>
       </c>
       <c r="C290" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B291" s="3">
-        <v>1001302596796</v>
+        <v>1001303636793</v>
       </c>
       <c r="C291" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B292" s="3">
-        <v>1001023696765</v>
+        <v>1001302596795</v>
       </c>
       <c r="C292" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696765</v>
+        <v>1001300516803</v>
       </c>
       <c r="C293" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B294" s="3">
-        <v>1001023696765</v>
+        <v>1001300456804</v>
       </c>
       <c r="C294" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023696767</v>
+        <v>1001300366807</v>
       </c>
       <c r="C295" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023696767</v>
+        <v>1001302596796</v>
       </c>
       <c r="C296" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B297" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C297" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="B298" s="3">
-        <v>1001024976829</v>
+        <v>1001023696765</v>
       </c>
       <c r="C298" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B299" s="3">
-        <v>1001024976829</v>
+        <v>1001023696765</v>
       </c>
       <c r="C299" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022376722</v>
+        <v>1001023696767</v>
       </c>
       <c r="C300" t="s">
-        <v>126</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B301" s="3">
-        <v>1001020846762</v>
+        <v>1001023696767</v>
       </c>
       <c r="C301" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B302" s="3">
-        <v>1001020846762</v>
+        <v>1001023696767</v>
       </c>
       <c r="C302" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B303" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C303" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656853</v>
+        <v>1001024976829</v>
       </c>
       <c r="C304" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656853</v>
+        <v>1001022376722</v>
       </c>
       <c r="C305" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>577</v>
+        <v>456</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022657075</v>
+        <v>1001020846762</v>
       </c>
       <c r="C306" t="s">
-        <v>609</v>
-      </c>
-      <c r="E306" t="s">
-        <v>628</v>
+        <v>433</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>572</v>
+        <v>475</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022657075</v>
+        <v>1001020846762</v>
       </c>
       <c r="C307" t="s">
-        <v>609</v>
-      </c>
-      <c r="E307" t="s">
-        <v>628</v>
+        <v>433</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>645</v>
+        <v>432</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022657075</v>
+        <v>1001020846762</v>
       </c>
       <c r="C308" t="s">
-        <v>609</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>608</v>
+        <v>132</v>
       </c>
       <c r="B309" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C309" t="s">
-        <v>609</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C310" t="s">
-        <v>569</v>
+        <v>436</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="B311" s="3">
-        <v>1001022657073</v>
+        <v>1001022657075</v>
       </c>
       <c r="C311" t="s">
-        <v>615</v>
+        <v>609</v>
+      </c>
+      <c r="E311" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022657073</v>
+        <v>1001022657075</v>
       </c>
       <c r="C312" t="s">
-        <v>615</v>
+        <v>609</v>
+      </c>
+      <c r="E312" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>441</v>
+        <v>645</v>
       </c>
       <c r="B313" s="3">
-        <v>1001022657073</v>
+        <v>1001022657075</v>
       </c>
       <c r="C313" t="s">
-        <v>615</v>
-      </c>
-      <c r="E313" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>458</v>
+        <v>608</v>
       </c>
       <c r="B314" s="3">
-        <v>1001020836759</v>
+        <v>1001022657075</v>
       </c>
       <c r="C314" t="s">
-        <v>443</v>
+        <v>609</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="B315" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C315" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>442</v>
+        <v>614</v>
       </c>
       <c r="B316" s="3">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="C316" t="s">
-        <v>443</v>
+        <v>615</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>444</v>
+        <v>636</v>
       </c>
       <c r="B317" s="3">
-        <v>1001023856870</v>
+        <v>1001022657073</v>
       </c>
       <c r="C317" t="s">
-        <v>445</v>
+        <v>615</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B318" s="3">
-        <v>1001013956426</v>
+        <v>1001022657073</v>
       </c>
       <c r="C318" t="s">
-        <v>439</v>
+        <v>615</v>
+      </c>
+      <c r="E318" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B319" s="3">
-        <v>1001093345495</v>
+        <v>1001020836759</v>
       </c>
       <c r="C319" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1001020836759</v>
+      </c>
+      <c r="C320" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1001020836759</v>
+      </c>
+      <c r="C321" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B322" s="3">
+        <v>1001023856870</v>
+      </c>
+      <c r="C322" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B323" s="3">
+        <v>1001013956426</v>
+      </c>
+      <c r="C323" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B324" s="3">
+        <v>1001093345495</v>
+      </c>
+      <c r="C324" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B325" s="3">
         <v>1001022656868</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C325" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B326" s="3">
         <v>1001022656868</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C326" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B327" s="3">
         <v>1001034065698</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C327" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B328" s="3">
         <v>1001034065698</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C328" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B329" s="3">
         <v>1001034065698</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C329" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B330" s="3">
         <v>1001034065698</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C330" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B326" s="3">
-        <v>1001084217090</v>
-      </c>
-      <c r="C326" t="s">
-        <v>601</v>
-      </c>
-      <c r="E326" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B331" s="3">
         <v>1001015646861</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C331" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B332" s="3">
         <v>1001015646861</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C332" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B333" s="3">
         <v>1001025176768</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C333" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B334" s="3">
         <v>1001025176768</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C334" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B335" s="3">
         <v>1001025176768</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C335" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B336" s="3">
         <v>1001025486770</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C336" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B333" s="3">
-        <v>1001025486770</v>
-      </c>
-      <c r="C333" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B334" s="3">
-        <v>1001025486770</v>
-      </c>
-      <c r="C334" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B335" s="3">
-        <v>1001012816340</v>
-      </c>
-      <c r="C335" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B336" s="3">
-        <v>1001012816340</v>
-      </c>
-      <c r="C336" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B337" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C337" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="B338" s="3">
-        <v>1001203146834</v>
+        <v>1001025486770</v>
       </c>
       <c r="C338" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>465</v>
+        <v>216</v>
       </c>
       <c r="B339" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C339" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B340" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C340" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B341" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C341" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="B342" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C342" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="B343" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C343" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B344" s="3">
-        <v>1001300516786</v>
+        <v>1001203146834</v>
       </c>
       <c r="C344" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="B345" s="3">
-        <v>1001214196459</v>
+        <v>1001203146834</v>
       </c>
       <c r="C345" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="B346" s="3">
-        <v>1001092436495</v>
+        <v>1001300456788</v>
       </c>
       <c r="C346" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="B347" s="3">
-        <v>1001092436495</v>
+        <v>1001022556837</v>
       </c>
       <c r="C347" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B348" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C348" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B349" s="3">
-        <v>1001025526901</v>
+        <v>1001214196459</v>
       </c>
       <c r="C349" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="B350" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C350" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="B351" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C351" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="B352" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C352" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B353" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C353" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B354" s="3">
-        <v>1001025766909</v>
+        <v>1001025546931</v>
       </c>
       <c r="C354" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="B355" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C355" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="B356" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C356" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="B357" s="3">
-        <v>1001010014558</v>
+        <v>1001010016324</v>
       </c>
       <c r="C357" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B358" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C358" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B359" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C359" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="B360" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C360" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="B361" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C361" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B362" s="3">
-        <v>1001012596801</v>
+        <v>1001010014558</v>
       </c>
       <c r="C362" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B363" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C363" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="B364" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C364" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B365" s="3">
-        <v>1001062353684</v>
+        <v>1001012596802</v>
       </c>
       <c r="C365" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B366" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C366" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B367" s="3">
-        <v>1001083424691</v>
+        <v>1001012596801</v>
       </c>
       <c r="C367" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B368" s="3">
-        <v>1001190765679</v>
+        <v>1001012596801</v>
       </c>
       <c r="C368" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B369" s="3">
-        <v>1001085636200</v>
+        <v>1001062353684</v>
       </c>
       <c r="C369" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B370" s="3">
-        <v>1001020836253</v>
+        <v>1001010014555</v>
       </c>
       <c r="C370" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B371" s="3">
-        <v>1001084226492</v>
+        <v>1001083424691</v>
       </c>
       <c r="C371" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>637</v>
+        <v>530</v>
       </c>
       <c r="B372" s="3">
-        <v>1001223297092</v>
+        <v>1001190765679</v>
       </c>
       <c r="C372" t="s">
-        <v>627</v>
+        <v>531</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B373" s="3">
-        <v>1001223297092</v>
+        <v>1001085636200</v>
       </c>
       <c r="C373" t="s">
-        <v>627</v>
-      </c>
-      <c r="E373" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B374" s="3">
-        <v>1001053944786</v>
+        <v>1001020836253</v>
       </c>
       <c r="C374" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B375" s="3">
-        <v>1001010016839</v>
+        <v>1001084226492</v>
       </c>
       <c r="C375" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="B376" s="3">
-        <v>1001023857038</v>
+        <v>1001223297092</v>
       </c>
       <c r="C376" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B377" s="3">
-        <v>1001040434903</v>
+        <v>1001223297092</v>
       </c>
       <c r="C377" t="s">
-        <v>553</v>
+        <v>627</v>
+      </c>
+      <c r="E377" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B378" s="3">
-        <v>1001080216842</v>
+        <v>1001053944786</v>
       </c>
       <c r="C378" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B379" s="3">
-        <v>1001022467082</v>
+        <v>1001010016839</v>
       </c>
       <c r="C379" t="s">
-        <v>611</v>
-      </c>
-      <c r="E379" t="s">
-        <v>628</v>
+        <v>545</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B380" s="3">
-        <v>1001022467082</v>
+        <v>1001023857038</v>
       </c>
       <c r="C380" t="s">
-        <v>611</v>
-      </c>
-      <c r="E380" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="B381" s="3">
-        <v>1001022467082</v>
+        <v>1001040434903</v>
       </c>
       <c r="C381" t="s">
-        <v>611</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="B382" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C382" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="B383" s="3">
         <v>1001022467082</v>
@@ -6688,386 +6709,483 @@
       <c r="C383" t="s">
         <v>611</v>
       </c>
+      <c r="E383" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
       <c r="B384" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C384" t="s">
-        <v>629</v>
+        <v>611</v>
+      </c>
+      <c r="E384" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="B385" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C385" t="s">
-        <v>629</v>
-      </c>
-      <c r="E385" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="B386" s="3">
-        <v>1001062353680</v>
+        <v>1001022467082</v>
       </c>
       <c r="C386" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="B387" s="3">
-        <v>1001061971146</v>
+        <v>1001022467082</v>
       </c>
       <c r="C387" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="B388" s="3">
-        <v>1001225636201</v>
+        <v>1001035277059</v>
       </c>
       <c r="C388" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B389" s="3">
-        <v>1001020836724</v>
+        <v>1001035277059</v>
       </c>
       <c r="C389" t="s">
-        <v>586</v>
+        <v>629</v>
+      </c>
+      <c r="E389" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B390" s="3">
-        <v>1001095227035</v>
+        <v>1001062353680</v>
       </c>
       <c r="C390" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B391" s="3">
-        <v>1001023857038</v>
+        <v>1001061971146</v>
       </c>
       <c r="C391" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B392" s="3">
-        <v>1001025027040</v>
+        <v>1001225636201</v>
       </c>
       <c r="C392" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B393" s="3">
-        <v>1001223297103</v>
+        <v>1001020836724</v>
       </c>
       <c r="C393" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B394" s="3">
-        <v>1001223297103</v>
+        <v>1001095227035</v>
       </c>
       <c r="C394" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>652</v>
+        <v>589</v>
       </c>
       <c r="B395" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C395" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B396" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C396" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="B397" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C397" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B398" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C398" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="B399" s="3">
-        <v>1001035937001</v>
+        <v>1001223297103</v>
       </c>
       <c r="C399" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B400" s="3">
+        <v>1001223297103</v>
+      </c>
+      <c r="C400" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B401" s="3">
+        <v>1001010032675</v>
+      </c>
+      <c r="C401" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B402" s="3">
+        <v>1001010032675</v>
+      </c>
+      <c r="C402" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B403" s="3">
+        <v>1001035937001</v>
+      </c>
+      <c r="C403" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B404" s="3">
         <v>1001035937001</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C404" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B405" s="3">
         <v>1001035937001</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C405" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B406" s="3">
+        <v>1001084217090</v>
+      </c>
+      <c r="C406" t="s">
+        <v>601</v>
+      </c>
+      <c r="E406" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B407" s="3">
+        <v>1001084217090</v>
+      </c>
+      <c r="C407" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B408" s="3">
         <v>1001084217090</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C408" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B409" s="3">
         <v>1001084217090</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C409" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B410" s="3">
         <v>1001022377066</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C410" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B411" s="3">
         <v>1001022377066</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C411" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B412" s="3">
         <v>1001022377066</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C412" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B413" s="3">
         <v>1001010027126</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C413" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B414" s="3">
         <v>1001010027125</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C414" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B415" s="3">
         <v>1001223297053</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C415" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B416" s="3">
         <v>1001093316411</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C416" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B411" s="3">
-        <v>1001025526962</v>
-      </c>
-      <c r="C411" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B412" s="3">
-        <v>1001025886987</v>
-      </c>
-      <c r="C412" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B413" s="3">
-        <v>1001204447052</v>
-      </c>
-      <c r="C413" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B414" s="3">
-        <v>1001084227087</v>
-      </c>
-      <c r="C414" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B415" s="3">
-        <v>1001203207105</v>
-      </c>
-      <c r="C415" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B416" s="3">
-        <v>1001205447106</v>
-      </c>
-      <c r="C416" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1001025526962</v>
+      </c>
+      <c r="C417" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B418" s="3">
+        <v>1001025886987</v>
+      </c>
+      <c r="C418" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B419" s="3">
+        <v>1001204447052</v>
+      </c>
+      <c r="C419" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B420" s="3">
+        <v>1001084227087</v>
+      </c>
+      <c r="C420" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B421" s="3">
+        <v>1001203207105</v>
+      </c>
+      <c r="C421" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B422" s="3">
+        <v>1001205447106</v>
+      </c>
+      <c r="C422" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B423" s="3">
         <v>1001205467107</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C423" t="s">
         <v>666</v>
       </c>
     </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B424" s="3">
+        <v>1001015676877</v>
+      </c>
+      <c r="C424" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B425" s="3">
+        <v>1001016366888</v>
+      </c>
+      <c r="C425" t="s">
+        <v>675</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C413" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C425" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEDC68-F0CC-45B3-B3D3-D007DCE524F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB3A70-3D60-446D-9CAD-7B8B613A8F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$425</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$426</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="679">
   <si>
     <t>1С</t>
   </si>
@@ -1146,9 +1146,6 @@
     <t>БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
   </si>
   <si>
-    <t>БАЛЫКОВАЯ в/к в/у</t>
-  </si>
-  <si>
     <t>ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
   </si>
   <si>
@@ -1635,9 +1632,6 @@
     <t>6200 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг</t>
-  </si>
-  <si>
     <t>6253 МОЛОЧНЫЕ Коровино сос п/о мгс 1.5*6  ОСТАНКИНО</t>
   </si>
   <si>
@@ -2065,6 +2059,18 @@
   </si>
   <si>
     <t>7166 СЕРВЕЛТ ОХОТНИЧИЙ ПМ в/к в/у_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>ротация 31,03,25 (письмо)</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0,3кг_50с</t>
+  </si>
+  <si>
+    <t>7187 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0,3кг_50с ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2419,11 +2425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F425"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2438,7 @@
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2521,62 +2527,62 @@
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,7 +2593,7 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,29 +2659,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,7 +2692,7 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,21 +2703,21 @@
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2805,7 @@
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,7 +2816,7 @@
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2843,7 +2849,7 @@
         <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,18 +2871,18 @@
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,7 +2893,7 @@
         <v>1001022556069</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -2954,21 +2960,21 @@
         <v>1001303637149</v>
       </c>
       <c r="C47" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B48" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C48" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,7 +2985,7 @@
         <v>1001013956426</v>
       </c>
       <c r="C49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,13 +3265,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B75" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C75" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,21 +3282,21 @@
         <v>1001300387154</v>
       </c>
       <c r="C76" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E76" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B77" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C77" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,10 +3307,10 @@
         <v>1001303987169</v>
       </c>
       <c r="C78" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E78" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,7 +3359,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="3">
         <v>1001303106773</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
@@ -3375,7 +3381,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B85" s="3">
         <v>1001303106773</v>
@@ -3397,7 +3403,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B87" s="3">
         <v>1001012566392</v>
@@ -3419,13 +3425,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B89" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C89" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,10 +3442,10 @@
         <v>1001302277173</v>
       </c>
       <c r="C90" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E90" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,52 +3615,52 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B106" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E106" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B107" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C107" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E107" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B108" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C108" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B109" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C109" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3671,7 @@
         <v>1001022376955</v>
       </c>
       <c r="C110" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,10 +3858,10 @@
         <v>1001022377066</v>
       </c>
       <c r="C127" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E127" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3866,10 +3872,10 @@
         <v>1001022377066</v>
       </c>
       <c r="C128" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E128" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3880,10 +3886,10 @@
         <v>1001022377066</v>
       </c>
       <c r="C129" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E129" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,10 +3911,10 @@
         <v>1001022467080</v>
       </c>
       <c r="C131" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E131" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,43 +3925,43 @@
         <v>1001022467080</v>
       </c>
       <c r="C132" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E132" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B133" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C133" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B134" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C134" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B135" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C135" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,29 +3994,29 @@
         <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,7 +4027,7 @@
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,41 +4065,41 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B145" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C145" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E145" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B146" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C146" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E146" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B147" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C147" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4104,7 +4110,7 @@
         <v>1001022656854</v>
       </c>
       <c r="C148" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4241,13 +4247,13 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B161" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,7 +4280,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B164" s="3">
         <v>1001012426220</v>
@@ -4456,7 +4462,7 @@
         <v>1001035026308</v>
       </c>
       <c r="C180" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,29 +4522,29 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B186" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C187" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856609</v>
@@ -4566,7 +4572,7 @@
         <v>1001093345495</v>
       </c>
       <c r="C190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,13 +4610,13 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B194" s="3">
         <v>1001063926780</v>
       </c>
       <c r="C194" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,7 +4896,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B220" s="3">
         <v>1001215576586</v>
@@ -4984,10 +4990,10 @@
         <v>1001025507077</v>
       </c>
       <c r="C228" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E228" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4998,43 +5004,43 @@
         <v>1001025507077</v>
       </c>
       <c r="C229" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E229" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C230" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C231" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B232" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C232" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5067,7 +5073,7 @@
         <v>1001025546822</v>
       </c>
       <c r="C235" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,13 +5111,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5122,7 +5128,7 @@
         <v>1001223296919</v>
       </c>
       <c r="C240" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,29 +5139,29 @@
         <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,7 +5172,7 @@
         <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5301,9 +5307,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B257" s="3">
         <v>1001304096792</v>
@@ -5312,7 +5318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>357</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>358</v>
       </c>
@@ -5334,40 +5340,49 @@
         <v>369</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B260" s="3">
-        <v>1001303636794</v>
+        <v>1001303637131</v>
       </c>
       <c r="C260" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="E260" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B261" s="3">
-        <v>1001303636794</v>
+        <v>1001303637131</v>
       </c>
       <c r="C261" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="E261" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B262" s="3">
-        <v>1001303636794</v>
+        <v>1001303637131</v>
       </c>
       <c r="C262" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="E262" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>360</v>
       </c>
@@ -5375,10 +5390,10 @@
         <v>1001302596795</v>
       </c>
       <c r="C263" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>361</v>
       </c>
@@ -5386,10 +5401,10 @@
         <v>1001302596796</v>
       </c>
       <c r="C264" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>362</v>
       </c>
@@ -5397,21 +5412,21 @@
         <v>1001300456804</v>
       </c>
       <c r="C265" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B266" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C266" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>363</v>
       </c>
@@ -5419,10 +5434,10 @@
         <v>1001300366806</v>
       </c>
       <c r="C267" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>364</v>
       </c>
@@ -5430,10 +5445,10 @@
         <v>1001300516803</v>
       </c>
       <c r="C268" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>365</v>
       </c>
@@ -5441,67 +5456,67 @@
         <v>1001300366807</v>
       </c>
       <c r="C269" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="B270" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C270" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="B271" s="3">
         <v>1001300516785</v>
       </c>
       <c r="C271" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B272" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C272" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B273" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C273" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B274" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C274" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B275" s="3">
         <v>1001303636793</v>
@@ -5512,117 +5527,117 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B276" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C276" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B277" s="3">
         <v>1001012486332</v>
       </c>
       <c r="C277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B278" s="3">
         <v>1001012566345</v>
       </c>
       <c r="C278" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B279" s="3">
         <v>1001031076528</v>
       </c>
       <c r="C279" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B280" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C280" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B281" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C281" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B282" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C282" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B283" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C283" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B284" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C284" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B285" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C285" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B286" s="3">
         <v>1001300366790</v>
@@ -5633,7 +5648,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B287" s="3">
         <v>1001300366790</v>
@@ -5655,7 +5670,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B289" s="3">
         <v>1001304096791</v>
@@ -5666,7 +5681,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B290" s="3">
         <v>1001304096791</v>
@@ -5677,7 +5692,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B291" s="3">
         <v>1001303636793</v>
@@ -5688,150 +5703,150 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B292" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C292" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B293" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C293" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B294" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C294" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B295" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C295" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B296" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C296" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C297" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B298" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C298" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B299" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C299" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B300" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C300" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C301" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B302" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C302" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B303" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C303" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B304" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C304" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B305" s="3">
         <v>1001022376722</v>
@@ -5842,35 +5857,35 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B306" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C306" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B307" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C307" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B308" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C308" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -5881,203 +5896,203 @@
         <v>1001022656853</v>
       </c>
       <c r="C309" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B310" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C310" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B311" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C311" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E311" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B312" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C312" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E312" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C313" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B314" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C314" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B315" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C315" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B316" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C316" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B317" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C317" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B318" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C318" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E318" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B319" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C319" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B320" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C320" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B321" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C321" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B322" s="3">
         <v>1001023856870</v>
       </c>
       <c r="C322" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B323" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C323" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B324" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C324" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B325" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C325" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B326" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C326" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6088,7 +6103,7 @@
         <v>1001034065698</v>
       </c>
       <c r="C327" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6099,117 +6114,117 @@
         <v>1001034065698</v>
       </c>
       <c r="C328" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B329" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C329" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B330" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C330" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B331" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C331" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B332" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C332" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B333" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C333" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B334" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C334" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B335" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C335" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B336" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C336" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B337" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C337" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B338" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C338" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -6220,29 +6235,29 @@
         <v>1001012816340</v>
       </c>
       <c r="C339" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B340" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C340" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B341" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C341" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,939 +6268,953 @@
         <v>1001203146834</v>
       </c>
       <c r="C342" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B343" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C343" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B344" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C344" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B345" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C345" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B346" s="3">
         <v>1001300456788</v>
       </c>
       <c r="C346" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B347" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C347" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B348" s="3">
         <v>1001300516786</v>
       </c>
       <c r="C348" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B349" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C349" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B350" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C350" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B351" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C351" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B352" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C352" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B353" s="3">
         <v>1001025526901</v>
       </c>
       <c r="C353" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B354" s="3">
         <v>1001025546931</v>
       </c>
       <c r="C354" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B355" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C355" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B356" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C356" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B357" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C357" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B358" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C358" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B359" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C359" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B360" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C360" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B361" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B362" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C362" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B363" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C363" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B364" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C364" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B365" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C365" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B366" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C366" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C367" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B368" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C368" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B369" s="3">
         <v>1001062353684</v>
       </c>
       <c r="C369" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B370" s="3">
         <v>1001010014555</v>
       </c>
       <c r="C370" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B371" s="3">
         <v>1001083424691</v>
       </c>
       <c r="C371" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B372" s="3">
         <v>1001190765679</v>
       </c>
       <c r="C372" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>532</v>
+        <v>678</v>
       </c>
       <c r="B373" s="3">
-        <v>1001085636200</v>
+        <v>1001085637187</v>
       </c>
       <c r="C373" t="s">
-        <v>533</v>
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B374" s="3">
-        <v>1001020836253</v>
+        <v>1001085637187</v>
       </c>
       <c r="C374" t="s">
-        <v>535</v>
+        <v>677</v>
+      </c>
+      <c r="E374" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B375" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C375" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>637</v>
+        <v>534</v>
       </c>
       <c r="B376" s="3">
-        <v>1001223297092</v>
+        <v>1001084226492</v>
       </c>
       <c r="C376" t="s">
-        <v>627</v>
+        <v>535</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>539</v>
+        <v>635</v>
       </c>
       <c r="B377" s="3">
         <v>1001223297092</v>
       </c>
       <c r="C377" t="s">
-        <v>627</v>
-      </c>
-      <c r="E377" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B378" s="3">
-        <v>1001053944786</v>
+        <v>1001223297092</v>
       </c>
       <c r="C378" t="s">
-        <v>541</v>
+        <v>625</v>
+      </c>
+      <c r="E378" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B379" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C379" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B380" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C380" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B381" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C381" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B382" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C382" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B383" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C383" t="s">
-        <v>611</v>
-      </c>
-      <c r="E383" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B384" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C384" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E384" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>648</v>
+        <v>569</v>
       </c>
       <c r="B385" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C385" t="s">
-        <v>611</v>
+        <v>609</v>
+      </c>
+      <c r="E385" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B386" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C386" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C387" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B388" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C388" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="B389" s="3">
         <v>1001035277059</v>
       </c>
       <c r="C389" t="s">
-        <v>629</v>
-      </c>
-      <c r="E389" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B390" s="3">
-        <v>1001062353680</v>
+        <v>1001035277059</v>
       </c>
       <c r="C390" t="s">
-        <v>580</v>
+        <v>627</v>
+      </c>
+      <c r="E390" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B391" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C391" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B392" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C392" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B393" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C393" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B394" s="3">
-        <v>1001095227035</v>
+        <v>1001020836724</v>
       </c>
       <c r="C394" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B395" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C395" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B396" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C396" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B397" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C397" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B398" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C398" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>652</v>
+        <v>593</v>
       </c>
       <c r="B399" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C399" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>594</v>
+        <v>650</v>
       </c>
       <c r="B400" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C400" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B401" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C401" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B402" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C402" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="B403" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C403" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B404" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C404" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="B405" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C405" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>467</v>
+        <v>596</v>
       </c>
       <c r="B406" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C406" t="s">
-        <v>601</v>
-      </c>
-      <c r="E406" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>672</v>
+        <v>466</v>
       </c>
       <c r="B407" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C407" t="s">
-        <v>601</v>
+        <v>599</v>
+      </c>
+      <c r="E407" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="B408" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C408" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="B409" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C409" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="B410" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C410" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B411" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C411" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B412" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C412" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="B413" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C413" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B414" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C414" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B415" s="3">
-        <v>1001223297053</v>
+        <v>1001010027125</v>
       </c>
       <c r="C415" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B416" s="3">
-        <v>1001093316411</v>
+        <v>1001223297053</v>
       </c>
       <c r="C416" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1001093316411</v>
+      </c>
+      <c r="C417" t="s">
         <v>639</v>
-      </c>
-      <c r="B417" s="3">
-        <v>1001025526962</v>
-      </c>
-      <c r="C417" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B418" s="3">
+        <v>1001025526962</v>
+      </c>
+      <c r="C418" t="s">
         <v>640</v>
-      </c>
-      <c r="B418" s="3">
-        <v>1001025886987</v>
-      </c>
-      <c r="C418" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B419" s="3">
-        <v>1001204447052</v>
+        <v>1001025886987</v>
       </c>
       <c r="C419" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B420" s="3">
-        <v>1001084227087</v>
+        <v>1001204447052</v>
       </c>
       <c r="C420" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B421" s="3">
-        <v>1001203207105</v>
+        <v>1001084227087</v>
       </c>
       <c r="C421" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B422" s="3">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="C422" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B423" s="3">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="C423" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B424" s="3">
-        <v>1001015676877</v>
+        <v>1001205467107</v>
       </c>
       <c r="C424" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B425" s="3">
+        <v>1001015676877</v>
+      </c>
+      <c r="C425" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B426" s="3">
         <v>1001016366888</v>
       </c>
-      <c r="C425" t="s">
-        <v>675</v>
+      <c r="C426" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C425" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C426" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB3A70-3D60-446D-9CAD-7B8B613A8F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B996E-DA6C-4901-B5B9-67D3A85189D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$427</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="682">
   <si>
     <t>1С</t>
   </si>
@@ -216,9 +216,6 @@
     <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
   </si>
   <si>
@@ -774,9 +768,6 @@
     <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
   </si>
   <si>
-    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
   </si>
   <si>
@@ -1794,9 +1785,6 @@
     <t>7035 ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0.35кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0.35кг 8шт.</t>
-  </si>
-  <si>
     <t>7038 С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4  ОСТАНКИНО</t>
   </si>
   <si>
@@ -2001,9 +1989,6 @@
     <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
   </si>
   <si>
-    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
-  </si>
-  <si>
     <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
   </si>
   <si>
@@ -2071,6 +2056,30 @@
   </si>
   <si>
     <t>7187 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0,3кг_50с ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ротация 23,04,25</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0.35кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0,28кг_209к</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>7232 БОЯNСКАЯ ПМ п/к в/у 0,28кг 8шт_209к ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7241 САЛЯМИ Папа может п/к в/у 0,28кг_209к ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>7126 МОЛОЧНАЯ Останкино вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2425,11 +2434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,68 +2530,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2593,12 +2602,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2659,29 +2668,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2701,7 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,21 +2712,21 @@
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E24" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,13 +2808,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2816,7 +2825,7 @@
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,7 +2858,7 @@
         <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,18 +2880,18 @@
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,7 +2902,7 @@
         <v>1001022556069</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -2932,451 +2941,457 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B45" s="3">
-        <v>1001304506684</v>
+        <v>1001304507236</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>676</v>
+      </c>
+      <c r="E45" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3">
-        <v>1001303056692</v>
+        <v>1001304507236</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>676</v>
+      </c>
+      <c r="E46" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C47" t="s">
-        <v>656</v>
-      </c>
-      <c r="E47" t="s">
-        <v>651</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>671</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C48" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="E48" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>666</v>
       </c>
       <c r="B49" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C49" t="s">
-        <v>438</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3">
-        <v>1001024636438</v>
+        <v>1001013956426</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="B53" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B58" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B59" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B65" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B66" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B68" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B70" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1001010036597</v>
+      </c>
+      <c r="C72" t="s">
         <v>111</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1001010036597</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1001020886646</v>
-      </c>
-      <c r="C72" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c r="B73" s="3">
-        <v>1001305306566</v>
+        <v>1001020886646</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>118</v>
+      <c r="A74" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="B74" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>667</v>
+        <v>117</v>
       </c>
       <c r="B75" s="3">
-        <v>1001300387154</v>
+        <v>1001305306566</v>
       </c>
       <c r="C75" t="s">
-        <v>654</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>662</v>
       </c>
       <c r="B76" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C76" t="s">
-        <v>654</v>
-      </c>
-      <c r="E76" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>668</v>
+        <v>122</v>
       </c>
       <c r="B77" s="3">
-        <v>1001303987169</v>
+        <v>1001300387154</v>
       </c>
       <c r="C77" t="s">
-        <v>653</v>
+        <v>650</v>
+      </c>
+      <c r="E77" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>663</v>
       </c>
       <c r="B78" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C78" t="s">
-        <v>653</v>
-      </c>
-      <c r="E78" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="B79" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
+        <v>649</v>
+      </c>
+      <c r="E79" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B80" s="5">
+        <v>239</v>
+      </c>
+      <c r="B80" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="B81" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="3">
+        <v>273</v>
+      </c>
+      <c r="B82" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="B83" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,23 +3402,23 @@
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="B86" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="B87" s="3">
         <v>1001012566392</v>
@@ -3414,7 +3429,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
       <c r="B88" s="3">
         <v>1001012566392</v>
@@ -3425,972 +3440,972 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>669</v>
+        <v>126</v>
       </c>
       <c r="B89" s="3">
-        <v>1001302277173</v>
+        <v>1001012566392</v>
       </c>
       <c r="C89" t="s">
-        <v>655</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>678</v>
       </c>
       <c r="B90" s="3">
-        <v>1001302277173</v>
+        <v>1001302277232</v>
       </c>
       <c r="C90" t="s">
-        <v>655</v>
-      </c>
-      <c r="E90" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>664</v>
       </c>
       <c r="B91" s="3">
-        <v>1001012426268</v>
+        <v>1001302277232</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>677</v>
+      </c>
+      <c r="E91" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1001024906041</v>
+      </c>
+      <c r="C93" t="s">
         <v>133</v>
-      </c>
-      <c r="B93" s="3">
-        <v>1001011086247</v>
-      </c>
-      <c r="C93" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B95" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B96" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="B97" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="B98" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B100" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C100" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="B101" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="B102" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B103" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B104" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>576</v>
+        <v>127</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022377070</v>
+        <v>1001022376722</v>
       </c>
       <c r="C106" t="s">
-        <v>611</v>
-      </c>
-      <c r="E106" t="s">
-        <v>626</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B107" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C107" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E107" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="B108" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C108" t="s">
-        <v>611</v>
+        <v>607</v>
+      </c>
+      <c r="E108" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="B109" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C109" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>606</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022376955</v>
+        <v>1001022377070</v>
       </c>
       <c r="C110" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="B112" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
       <c r="B113" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B114" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B116" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B117" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B118" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="B119" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="B120" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B121" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B122" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B123" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B124" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B125" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C125" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B126" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022377066</v>
+        <v>6225</v>
       </c>
       <c r="C127" t="s">
-        <v>601</v>
-      </c>
-      <c r="E127" t="s">
-        <v>626</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B128" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C128" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E128" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B129" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C129" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E129" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B130" s="3">
-        <v>3297</v>
+        <v>1001022377066</v>
       </c>
       <c r="C130" t="s">
-        <v>173</v>
+        <v>597</v>
+      </c>
+      <c r="E130" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022467080</v>
+        <v>3297</v>
       </c>
       <c r="C131" t="s">
-        <v>603</v>
-      </c>
-      <c r="E131" t="s">
-        <v>626</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="B132" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C132" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E132" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>645</v>
+        <v>174</v>
       </c>
       <c r="B133" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C133" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="E133" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="B134" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C134" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B135" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C135" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>598</v>
       </c>
       <c r="B136" s="3">
-        <v>1001021966602</v>
+        <v>1001022467080</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>599</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B137" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="B138" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C138" t="s">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>492</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B142" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B143" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C143" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B144" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C144" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>557</v>
+        <v>181</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022657074</v>
+        <v>5982</v>
       </c>
       <c r="C145" t="s">
-        <v>628</v>
-      </c>
-      <c r="E145" t="s">
-        <v>626</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>459</v>
+        <v>554</v>
       </c>
       <c r="B146" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C146" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E146" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>649</v>
+        <v>456</v>
       </c>
       <c r="B147" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C147" t="s">
-        <v>628</v>
+        <v>624</v>
+      </c>
+      <c r="E147" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>185</v>
+        <v>645</v>
       </c>
       <c r="B148" s="3">
-        <v>1001022656854</v>
+        <v>1001022657074</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B149" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B150" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B151" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B152" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B154" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="B155" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="B157" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>197</v>
+        <v>346</v>
       </c>
       <c r="B158" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="B159" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C159" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>347</v>
       </c>
       <c r="B160" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C160" t="s">
-        <v>199</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>561</v>
+        <v>196</v>
       </c>
       <c r="B161" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>200</v>
+        <v>558</v>
       </c>
       <c r="B162" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C162" t="s">
-        <v>201</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B163" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C163" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="B164" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C164" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>507</v>
       </c>
       <c r="B165" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C166" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B167" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C168" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B169" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B170" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B172" s="3">
         <v>1001020846751</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B173" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B174" s="3">
         <v>1001012825337</v>
@@ -4401,7 +4416,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B175" s="3">
         <v>1001012815336</v>
@@ -4412,255 +4427,255 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B176" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B177" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C177" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B178" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C179" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B180" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C180" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B181" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C181" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B182" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C182" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B183" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B184" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C184" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B185" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C185" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B186" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C187" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B189" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C189" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B190" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C190" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B191" s="3">
         <v>6550</v>
       </c>
       <c r="C191" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B192" s="3">
-        <v>1001304506684</v>
+        <v>1001010113248</v>
       </c>
       <c r="C192" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="B193" s="3">
-        <v>1001010113248</v>
+        <v>1001063926780</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="B194" s="3">
-        <v>1001063926780</v>
+        <v>6586</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1001303636467</v>
+      </c>
+      <c r="C195" t="s">
         <v>249</v>
-      </c>
-      <c r="B195" s="3">
-        <v>6586</v>
-      </c>
-      <c r="C195" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B196" s="3">
-        <v>1001303636467</v>
+        <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" s="3">
+        <v>6144</v>
+      </c>
+      <c r="C197" t="s">
         <v>255</v>
-      </c>
-      <c r="B197" s="3">
-        <v>1001304496701</v>
-      </c>
-      <c r="C197" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B198" s="3">
-        <v>6144</v>
+        <v>1001022725819</v>
       </c>
       <c r="C198" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4668,51 +4683,51 @@
         <v>259</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022725819</v>
+        <v>1001022373812</v>
       </c>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B200" s="3">
-        <v>1001022373812</v>
+        <v>1001024906062</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B201" s="3">
-        <v>1001024906062</v>
+        <v>1001300386683</v>
       </c>
       <c r="C201" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B202" s="3">
-        <v>1001300386683</v>
+        <v>1001303986689</v>
       </c>
       <c r="C202" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B203" s="3">
-        <v>1001303986689</v>
+        <v>1001303056692</v>
       </c>
       <c r="C203" t="s">
         <v>61</v>
@@ -4720,90 +4735,90 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B204" s="3">
-        <v>1001303056692</v>
+        <v>1001301876697</v>
       </c>
       <c r="C204" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B205" s="3">
-        <v>1001301876697</v>
+        <v>1001302276666</v>
       </c>
       <c r="C205" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B206" s="3">
-        <v>1001302276666</v>
+        <v>1001012634574</v>
       </c>
       <c r="C206" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1001092485452</v>
+      </c>
+      <c r="C207" t="s">
         <v>270</v>
-      </c>
-      <c r="B207" s="3">
-        <v>1001012634574</v>
-      </c>
-      <c r="C207" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B208" s="3">
-        <v>1001092485452</v>
+        <v>1001020966144</v>
       </c>
       <c r="C208" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B209" s="3">
-        <v>1001020966144</v>
+        <v>6586</v>
       </c>
       <c r="C209" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B210" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C210" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B211" s="3">
-        <v>1001304496701</v>
+        <v>1001063655015</v>
       </c>
       <c r="C211" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4811,7 +4826,7 @@
         <v>278</v>
       </c>
       <c r="B212" s="3">
-        <v>1001063655015</v>
+        <v>1001060763287</v>
       </c>
       <c r="C212" t="s">
         <v>279</v>
@@ -4819,57 +4834,57 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B213" s="3">
-        <v>1001060763287</v>
+        <v>1001225416228</v>
       </c>
       <c r="C213" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B214" s="3">
-        <v>1001225416228</v>
+        <v>1001032736550</v>
       </c>
       <c r="C214" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B215" s="3">
-        <v>1001032736550</v>
+        <v>6758</v>
       </c>
       <c r="C215" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B216" s="3">
+        <v>1001020965976</v>
+      </c>
+      <c r="C216" t="s">
         <v>285</v>
-      </c>
-      <c r="B216" s="3">
-        <v>6758</v>
-      </c>
-      <c r="C216" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C217" t="s">
         <v>287</v>
-      </c>
-      <c r="B217" s="3">
-        <v>1001020965976</v>
-      </c>
-      <c r="C217" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4877,7 +4892,7 @@
         <v>289</v>
       </c>
       <c r="B218" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C218" t="s">
         <v>290</v>
@@ -4885,43 +4900,43 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>292</v>
+        <v>497</v>
       </c>
       <c r="B219" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C219" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="B220" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C220" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1001092436470</v>
+      </c>
+      <c r="C221" t="s">
         <v>294</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1001215576586</v>
-      </c>
-      <c r="C221" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B222" s="3">
-        <v>1001092436470</v>
+        <v>1001203146555</v>
       </c>
       <c r="C222" t="s">
         <v>297</v>
@@ -4929,43 +4944,43 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B223" s="3">
-        <v>1001203146555</v>
+        <v>1001014765992</v>
       </c>
       <c r="C223" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B224" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C224" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B225" s="3">
-        <v>1001014765992</v>
+        <v>1001014765993</v>
       </c>
       <c r="C225" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B226" s="3">
-        <v>1001014765993</v>
+        <v>1001025166776</v>
       </c>
       <c r="C226" t="s">
         <v>304</v>
@@ -4973,115 +4988,115 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025166776</v>
+        <v>1001025507077</v>
       </c>
       <c r="C227" t="s">
-        <v>307</v>
+        <v>601</v>
+      </c>
+      <c r="E227" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B228" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C228" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E228" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>308</v>
+        <v>640</v>
       </c>
       <c r="B229" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C229" t="s">
-        <v>605</v>
-      </c>
-      <c r="E229" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C230" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C231" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>604</v>
+        <v>327</v>
       </c>
       <c r="B232" s="3">
-        <v>1001025507077</v>
+        <v>1001025546822</v>
       </c>
       <c r="C232" t="s">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B233" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C233" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B234" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>552</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B235" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C235" t="s">
-        <v>555</v>
+        <v>307</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B236" s="3">
-        <v>1001025546822</v>
+        <v>1001024976616</v>
       </c>
       <c r="C236" t="s">
         <v>310</v>
@@ -5089,98 +5104,98 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B237" s="3">
-        <v>1001024976616</v>
+        <v>1001010855247</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="B238" s="3">
-        <v>1001010855247</v>
+        <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>392</v>
+        <v>69</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="B240" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C240" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>232</v>
+        <v>460</v>
       </c>
       <c r="B241" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>485</v>
+        <v>313</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B244" s="3">
-        <v>1001223296919</v>
+        <v>1001014765993</v>
       </c>
       <c r="C244" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B245" s="3">
-        <v>1001014765993</v>
+        <v>1001025166776</v>
       </c>
       <c r="C245" t="s">
         <v>304</v>
@@ -5188,54 +5203,54 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1001025526778</v>
+      </c>
+      <c r="C246" t="s">
         <v>320</v>
-      </c>
-      <c r="B246" s="3">
-        <v>1001025166776</v>
-      </c>
-      <c r="C246" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B247" s="3">
-        <v>1001025526778</v>
+        <v>1001304236685</v>
       </c>
       <c r="C247" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B248" s="3">
-        <v>1001304236685</v>
+        <v>1001015496769</v>
       </c>
       <c r="C248" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B249" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C249" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B250" s="3">
-        <v>1001015496769</v>
+        <v>1001014766798</v>
       </c>
       <c r="C250" t="s">
         <v>332</v>
@@ -5243,32 +5258,32 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B251" s="3">
-        <v>1001014766798</v>
+        <v>1001015026797</v>
       </c>
       <c r="C251" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1001205386222</v>
+      </c>
+      <c r="C252" t="s">
         <v>339</v>
-      </c>
-      <c r="B252" s="3">
-        <v>1001015026797</v>
-      </c>
-      <c r="C252" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B253" s="3">
-        <v>1001205386222</v>
+        <v>1001092675224</v>
       </c>
       <c r="C253" t="s">
         <v>342</v>
@@ -5276,13 +5291,13 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B254" s="3">
-        <v>1001092675224</v>
+        <v>1001225406223</v>
       </c>
       <c r="C254" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5290,261 +5305,261 @@
         <v>352</v>
       </c>
       <c r="B255" s="3">
-        <v>1001225406223</v>
+        <v>1001300366790</v>
       </c>
       <c r="C255" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>355</v>
+        <v>478</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366790</v>
+        <v>1001304096792</v>
       </c>
       <c r="C256" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>481</v>
+        <v>354</v>
       </c>
       <c r="B257" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C257" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B258" s="3">
-        <v>1001304096792</v>
+        <v>1001303636793</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="B259" s="3">
-        <v>1001303636793</v>
+        <v>1001303637131</v>
       </c>
       <c r="C259" t="s">
-        <v>369</v>
+        <v>670</v>
+      </c>
+      <c r="E259" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>403</v>
+        <v>498</v>
       </c>
       <c r="B260" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C260" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E260" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>501</v>
+        <v>356</v>
       </c>
       <c r="B261" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C261" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E261" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B262" s="3">
-        <v>1001303637131</v>
+        <v>1001302596795</v>
       </c>
       <c r="C262" t="s">
-        <v>675</v>
-      </c>
-      <c r="E262" t="s">
-        <v>676</v>
+        <v>367</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B263" s="3">
-        <v>1001302596795</v>
+        <v>1001302596796</v>
       </c>
       <c r="C263" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B264" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C264" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300456804</v>
+        <v>1001300366806</v>
       </c>
       <c r="C265" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="B266" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C266" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300366806</v>
+        <v>1001300516803</v>
       </c>
       <c r="C267" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C268" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B269" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C269" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1001300516785</v>
+      </c>
+      <c r="C270" t="s">
         <v>376</v>
-      </c>
-      <c r="B270" s="3">
-        <v>1001300366807</v>
-      </c>
-      <c r="C270" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" s="3">
+        <v>1001300456787</v>
+      </c>
+      <c r="C271" t="s">
         <v>378</v>
-      </c>
-      <c r="B271" s="3">
-        <v>1001300516785</v>
-      </c>
-      <c r="C271" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B272" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C272" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>556</v>
+        <v>377</v>
       </c>
       <c r="B273" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C273" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B274" s="3">
-        <v>1001300456787</v>
+        <v>1001303636793</v>
       </c>
       <c r="C274" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B275" s="3">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="C275" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B276" s="3">
-        <v>1001302596795</v>
+        <v>1001012486332</v>
       </c>
       <c r="C276" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B277" s="3">
+        <v>1001012566345</v>
+      </c>
+      <c r="C277" t="s">
         <v>384</v>
-      </c>
-      <c r="B277" s="3">
-        <v>1001012486332</v>
-      </c>
-      <c r="C277" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,7 +5567,7 @@
         <v>386</v>
       </c>
       <c r="B278" s="3">
-        <v>1001012566345</v>
+        <v>1001031076528</v>
       </c>
       <c r="C278" t="s">
         <v>387</v>
@@ -5560,175 +5575,175 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B279" s="3">
-        <v>1001031076528</v>
+        <v>1001020836761</v>
       </c>
       <c r="C279" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B280" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C280" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="B281" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C281" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B282" s="3">
+        <v>1001020846764</v>
+      </c>
+      <c r="C282" t="s">
         <v>396</v>
-      </c>
-      <c r="B282" s="3">
-        <v>1001020836761</v>
-      </c>
-      <c r="C282" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B283" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C283" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B284" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C284" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="B285" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C285" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B286" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C286" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="B287" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C287" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>356</v>
+        <v>469</v>
       </c>
       <c r="B288" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C288" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="B289" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C289" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B290" s="3">
-        <v>1001304096791</v>
+        <v>1001303636793</v>
       </c>
       <c r="C290" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B291" s="3">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="C291" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B292" s="3">
-        <v>1001302596795</v>
+        <v>1001300516803</v>
       </c>
       <c r="C292" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B293" s="3">
-        <v>1001300516803</v>
+        <v>1001300456804</v>
       </c>
       <c r="C293" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B294" s="3">
-        <v>1001300456804</v>
+        <v>1001300366807</v>
       </c>
       <c r="C294" t="s">
         <v>372</v>
@@ -5736,79 +5751,79 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B295" s="3">
-        <v>1001300366807</v>
+        <v>1001302596796</v>
       </c>
       <c r="C295" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B296" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C296" t="s">
         <v>408</v>
-      </c>
-      <c r="B296" s="3">
-        <v>1001302596796</v>
-      </c>
-      <c r="C296" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C297" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="B298" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C298" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B299" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C299" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B300" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C300" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C301" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,73 +5831,73 @@
         <v>414</v>
       </c>
       <c r="B302" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C302" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B303" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C303" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B304" s="3">
-        <v>1001024976829</v>
+        <v>1001022376722</v>
       </c>
       <c r="C304" t="s">
-        <v>409</v>
+        <v>125</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022376722</v>
+        <v>1001020846762</v>
       </c>
       <c r="C305" t="s">
-        <v>126</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B306" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C306" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="B307" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C307" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>431</v>
+        <v>130</v>
       </c>
       <c r="B308" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C308" t="s">
         <v>432</v>
@@ -5890,514 +5905,514 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="B309" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C309" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022656853</v>
+        <v>1001022657075</v>
       </c>
       <c r="C310" t="s">
-        <v>435</v>
+        <v>603</v>
+      </c>
+      <c r="E310" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B311" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C311" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E311" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="B312" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C312" t="s">
-        <v>607</v>
-      </c>
-      <c r="E312" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C313" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>606</v>
+        <v>431</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022657075</v>
+        <v>1001022656948</v>
       </c>
       <c r="C314" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>434</v>
+        <v>608</v>
       </c>
       <c r="B315" s="3">
-        <v>1001022656948</v>
+        <v>1001022657073</v>
       </c>
       <c r="C315" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="B316" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C316" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>634</v>
+        <v>437</v>
       </c>
       <c r="B317" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C317" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="E317" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B318" s="3">
-        <v>1001022657073</v>
+        <v>1001020836759</v>
       </c>
       <c r="C318" t="s">
-        <v>613</v>
-      </c>
-      <c r="E318" t="s">
-        <v>626</v>
+        <v>439</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B319" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C319" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="B320" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C320" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1001023856870</v>
+      </c>
+      <c r="C321" t="s">
         <v>441</v>
-      </c>
-      <c r="B321" s="3">
-        <v>1001020836759</v>
-      </c>
-      <c r="C321" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B322" s="3">
-        <v>1001023856870</v>
+        <v>1001013956426</v>
       </c>
       <c r="C322" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B323" s="3">
-        <v>1001013956426</v>
+        <v>1001093345495</v>
       </c>
       <c r="C323" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B324" s="3">
-        <v>1001093345495</v>
+        <v>1001022656868</v>
       </c>
       <c r="C324" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="B325" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C325" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>461</v>
+        <v>172</v>
       </c>
       <c r="B326" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C326" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B327" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C327" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="B328" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C328" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="B329" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C329" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B330" s="3">
-        <v>1001034065698</v>
+        <v>1001015646861</v>
       </c>
       <c r="C330" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B331" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C331" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B332" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C332" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B333" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C333" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B334" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C334" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B335" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C335" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B336" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C336" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B337" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C337" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>469</v>
+        <v>214</v>
       </c>
       <c r="B338" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C338" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>216</v>
+        <v>488</v>
       </c>
       <c r="B339" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C339" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B340" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C340" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="B341" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C341" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="B342" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C342" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B343" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C343" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B344" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C344" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B345" s="3">
-        <v>1001203146834</v>
+        <v>1001300456788</v>
       </c>
       <c r="C345" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B346" s="3">
-        <v>1001300456788</v>
+        <v>1001022556837</v>
       </c>
       <c r="C346" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B347" s="3">
-        <v>1001022556837</v>
+        <v>1001300516786</v>
       </c>
       <c r="C347" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B348" s="3">
-        <v>1001300516786</v>
+        <v>1001214196459</v>
       </c>
       <c r="C348" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B349" s="3">
+        <v>1001092436495</v>
+      </c>
+      <c r="C349" t="s">
         <v>502</v>
-      </c>
-      <c r="B349" s="3">
-        <v>1001214196459</v>
-      </c>
-      <c r="C349" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B350" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C350" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
       <c r="B351" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C351" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1001025526901</v>
+      </c>
+      <c r="C352" t="s">
         <v>504</v>
-      </c>
-      <c r="B352" s="3">
-        <v>1001092436495</v>
-      </c>
-      <c r="C352" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B353" s="3">
+        <v>1001025546931</v>
+      </c>
+      <c r="C353" t="s">
         <v>506</v>
-      </c>
-      <c r="B353" s="3">
-        <v>1001025526901</v>
-      </c>
-      <c r="C353" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B354" s="3">
-        <v>1001025546931</v>
+        <v>1001010016324</v>
       </c>
       <c r="C354" t="s">
         <v>509</v>
@@ -6405,65 +6420,65 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="B355" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C355" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="B356" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C356" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C357" t="s">
         <v>511</v>
-      </c>
-      <c r="B357" s="3">
-        <v>1001010016324</v>
-      </c>
-      <c r="C357" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="B358" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C358" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="B359" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C359" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="B360" s="3">
-        <v>1001025766909</v>
+        <v>1001010014558</v>
       </c>
       <c r="C360" t="s">
         <v>514</v>
@@ -6471,21 +6486,21 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="B361" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C361" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="B362" s="3">
-        <v>1001010014558</v>
+        <v>1001012596802</v>
       </c>
       <c r="C362" t="s">
         <v>517</v>
@@ -6493,217 +6508,217 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B363" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C363" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B364" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C364" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B365" s="3">
+        <v>1001012596801</v>
+      </c>
+      <c r="C365" t="s">
         <v>519</v>
-      </c>
-      <c r="B365" s="3">
-        <v>1001012596802</v>
-      </c>
-      <c r="C365" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B366" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C366" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C367" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B368" s="3">
+        <v>1001062353684</v>
+      </c>
+      <c r="C368" t="s">
         <v>521</v>
-      </c>
-      <c r="B368" s="3">
-        <v>1001012596801</v>
-      </c>
-      <c r="C368" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B369" s="3">
+        <v>1001010014555</v>
+      </c>
+      <c r="C369" t="s">
         <v>523</v>
-      </c>
-      <c r="B369" s="3">
-        <v>1001062353684</v>
-      </c>
-      <c r="C369" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B370" s="3">
+        <v>1001083424691</v>
+      </c>
+      <c r="C370" t="s">
         <v>525</v>
-      </c>
-      <c r="B370" s="3">
-        <v>1001010014555</v>
-      </c>
-      <c r="C370" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B371" s="3">
+        <v>1001190765679</v>
+      </c>
+      <c r="C371" t="s">
         <v>527</v>
-      </c>
-      <c r="B371" s="3">
-        <v>1001083424691</v>
-      </c>
-      <c r="C371" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>529</v>
+        <v>673</v>
       </c>
       <c r="B372" s="3">
-        <v>1001190765679</v>
+        <v>1001085637187</v>
       </c>
       <c r="C372" t="s">
-        <v>530</v>
+        <v>672</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>678</v>
+        <v>528</v>
       </c>
       <c r="B373" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C373" t="s">
-        <v>677</v>
+        <v>672</v>
+      </c>
+      <c r="E373" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B374" s="3">
-        <v>1001085637187</v>
+        <v>1001020836253</v>
       </c>
       <c r="C374" t="s">
-        <v>677</v>
-      </c>
-      <c r="E374" t="s">
-        <v>676</v>
+        <v>530</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B375" s="3">
+        <v>1001084226492</v>
+      </c>
+      <c r="C375" t="s">
         <v>532</v>
-      </c>
-      <c r="B375" s="3">
-        <v>1001020836253</v>
-      </c>
-      <c r="C375" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="B376" s="3">
-        <v>1001084226492</v>
+        <v>1001223297092</v>
       </c>
       <c r="C376" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>635</v>
+        <v>534</v>
       </c>
       <c r="B377" s="3">
         <v>1001223297092</v>
       </c>
       <c r="C377" t="s">
-        <v>625</v>
+        <v>621</v>
+      </c>
+      <c r="E377" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B378" s="3">
-        <v>1001223297092</v>
+        <v>1001053944786</v>
       </c>
       <c r="C378" t="s">
-        <v>625</v>
-      </c>
-      <c r="E378" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B379" s="3">
-        <v>1001053944786</v>
+        <v>1001010016839</v>
       </c>
       <c r="C379" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B380" s="3">
-        <v>1001010016839</v>
+        <v>1001023857038</v>
       </c>
       <c r="C380" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B381" s="3">
-        <v>1001023857038</v>
+        <v>1001040434903</v>
       </c>
       <c r="C381" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,7 +6726,7 @@
         <v>550</v>
       </c>
       <c r="B382" s="3">
-        <v>1001040434903</v>
+        <v>1001080216842</v>
       </c>
       <c r="C382" t="s">
         <v>551</v>
@@ -6719,13 +6734,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B383" s="3">
-        <v>1001080216842</v>
+        <v>1001022467082</v>
       </c>
       <c r="C383" t="s">
-        <v>554</v>
+        <v>605</v>
+      </c>
+      <c r="E383" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -6736,485 +6754,496 @@
         <v>1001022467082</v>
       </c>
       <c r="C384" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E384" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="B385" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C385" t="s">
-        <v>609</v>
-      </c>
-      <c r="E385" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="B386" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C386" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C387" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="B388" s="3">
-        <v>1001022467082</v>
+        <v>1001035277059</v>
       </c>
       <c r="C388" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="B389" s="3">
         <v>1001035277059</v>
       </c>
       <c r="C389" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="E389" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B390" s="3">
-        <v>1001035277059</v>
+        <v>1001062353680</v>
       </c>
       <c r="C390" t="s">
-        <v>627</v>
-      </c>
-      <c r="E390" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B391" s="3">
+        <v>1001061971146</v>
+      </c>
+      <c r="C391" t="s">
         <v>577</v>
-      </c>
-      <c r="B391" s="3">
-        <v>1001062353680</v>
-      </c>
-      <c r="C391" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B392" s="3">
+        <v>1001225636201</v>
+      </c>
+      <c r="C392" t="s">
         <v>579</v>
-      </c>
-      <c r="B392" s="3">
-        <v>1001061971146</v>
-      </c>
-      <c r="C392" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B393" s="3">
+        <v>1001020836724</v>
+      </c>
+      <c r="C393" t="s">
         <v>581</v>
-      </c>
-      <c r="B393" s="3">
-        <v>1001225636201</v>
-      </c>
-      <c r="C393" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B394" s="3">
-        <v>1001020836724</v>
+        <v>1001095227235</v>
       </c>
       <c r="C394" t="s">
-        <v>584</v>
+        <v>675</v>
+      </c>
+      <c r="E394" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B395" s="3">
-        <v>1001095227035</v>
+        <v>1001023857038</v>
       </c>
       <c r="C395" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B396" s="3">
-        <v>1001023857038</v>
+        <v>1001025027040</v>
       </c>
       <c r="C396" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B397" s="3">
-        <v>1001025027040</v>
+        <v>1001223297103</v>
       </c>
       <c r="C397" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B398" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C398" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="B399" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C399" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="B400" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C400" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="B401" s="3">
-        <v>1001223297103</v>
+        <v>1001010032675</v>
       </c>
       <c r="C401" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B402" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C402" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="B403" s="3">
-        <v>1001010032675</v>
+        <v>1001035937001</v>
       </c>
       <c r="C403" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B404" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C404" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="B405" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C405" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="B406" s="3">
-        <v>1001035937001</v>
+        <v>1001084217090</v>
       </c>
       <c r="C406" t="s">
-        <v>597</v>
+        <v>595</v>
+      </c>
+      <c r="E406" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>466</v>
+        <v>665</v>
       </c>
       <c r="B407" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C407" t="s">
-        <v>599</v>
-      </c>
-      <c r="E407" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="B408" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C408" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="B409" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C409" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="B410" s="3">
-        <v>1001084217090</v>
+        <v>1001022377066</v>
       </c>
       <c r="C410" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B411" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C411" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="B412" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C412" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="B413" s="3">
-        <v>1001022377066</v>
+        <v>1001010027126</v>
       </c>
       <c r="C413" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B414" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C414" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B415" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C415" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B416" s="3">
         <v>1001223297053</v>
       </c>
       <c r="C416" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B417" s="3">
         <v>1001093316411</v>
       </c>
       <c r="C417" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B418" s="3">
         <v>1001025526962</v>
       </c>
       <c r="C418" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B419" s="3">
         <v>1001025886987</v>
       </c>
       <c r="C419" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B420" s="3">
         <v>1001204447052</v>
       </c>
       <c r="C420" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B421" s="3">
         <v>1001084227087</v>
       </c>
       <c r="C421" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B422" s="3">
         <v>1001203207105</v>
       </c>
       <c r="C422" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B423" s="3">
         <v>1001205447106</v>
       </c>
       <c r="C423" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B424" s="3">
         <v>1001205467107</v>
       </c>
       <c r="C424" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B425" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C425" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B426" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C426" t="s">
-        <v>673</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B427" s="3">
+        <v>1001303107241</v>
+      </c>
+      <c r="C427" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C426" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C427" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SIMF/moduls/1С.xlsx
+++ b/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B996E-DA6C-4901-B5B9-67D3A85189D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5EB01-E65D-4774-AFD0-F862B06A298C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$427</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$430</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="687">
   <si>
     <t>1С</t>
   </si>
@@ -2080,6 +2080,21 @@
   </si>
   <si>
     <t>7126 МОЛОЧНАЯ Останкино вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7131 БАЛЫКОВАЯ в/к в/у 0,84кг ВЕС ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7235 ВЕТЧ.КЛАССИЧЕСКАЯ ПМ п/о 0,35кг 8шт_209к ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7236 СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0,28кг_209к ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7231 КЛАССИЧЕСКАЯ ПМ вар п/о 0,3кг 8шт_209к ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
   </si>
 </sst>
 </file>
@@ -2434,11 +2449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2956,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>209</v>
+        <v>684</v>
       </c>
       <c r="B45" s="3">
         <v>1001304507236</v>
@@ -2949,13 +2964,10 @@
       <c r="C45" t="s">
         <v>676</v>
       </c>
-      <c r="E45" t="s">
-        <v>674</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B46" s="3">
         <v>1001304507236</v>
@@ -2969,32 +2981,32 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303056692</v>
+        <v>1001304507236</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>676</v>
+      </c>
+      <c r="E47" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1001303056692</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1001303637149</v>
-      </c>
-      <c r="C48" t="s">
-        <v>651</v>
-      </c>
-      <c r="E48" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="B49" s="3">
         <v>1001303637149</v>
@@ -3002,54 +3014,57 @@
       <c r="C49" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1001303637149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3">
         <v>1001013956426</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>1001024636438</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>1001234146448</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1001202506453</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B54" s="3">
         <v>1001202506453</v>
@@ -3058,229 +3073,229 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1001202506453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>1001201976454</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>1001025176475</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>1001301876697</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>1001024636517</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>1001031076527</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B61" s="3">
         <v>1001304506562</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B62" s="3">
         <v>1001020846563</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B63" s="3">
         <v>1001020836589</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B64" s="3">
         <v>6751</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="3">
-        <v>1001010016592</v>
-      </c>
-      <c r="C64" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B65" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B67" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B69" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>1001010036597</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1001020886646</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1001020886646</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="B75" s="3">
         <v>1001305306566</v>
@@ -3291,18 +3306,18 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>662</v>
+        <v>117</v>
       </c>
       <c r="B76" s="3">
-        <v>1001300387154</v>
+        <v>1001305306566</v>
       </c>
       <c r="C76" t="s">
-        <v>650</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>662</v>
       </c>
       <c r="B77" s="3">
         <v>1001300387154</v>
@@ -3310,24 +3325,24 @@
       <c r="C77" t="s">
         <v>650</v>
       </c>
-      <c r="E77" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>663</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3">
-        <v>1001303987169</v>
+        <v>1001300387154</v>
       </c>
       <c r="C78" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="E78" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>663</v>
       </c>
       <c r="B79" s="3">
         <v>1001303987169</v>
@@ -3335,26 +3350,26 @@
       <c r="C79" t="s">
         <v>649</v>
       </c>
-      <c r="E79" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="B80" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C80" t="s">
-        <v>344</v>
+        <v>649</v>
+      </c>
+      <c r="E80" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B81" s="5">
+        <v>239</v>
+      </c>
+      <c r="B81" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
@@ -3363,7 +3378,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="B82" s="5">
         <v>1001303106773</v>
@@ -3374,9 +3389,9 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="3">
+        <v>273</v>
+      </c>
+      <c r="B83" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
@@ -3385,7 +3400,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
@@ -3396,7 +3411,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B85" s="3">
         <v>1001303106773</v>
@@ -3407,7 +3422,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B86" s="3">
         <v>1001303106773</v>
@@ -3418,18 +3433,18 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>228</v>
+        <v>385</v>
       </c>
       <c r="B87" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>420</v>
+        <v>228</v>
       </c>
       <c r="B88" s="3">
         <v>1001012566392</v>
@@ -3440,7 +3455,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="B89" s="3">
         <v>1001012566392</v>
@@ -3451,18 +3466,18 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>678</v>
+        <v>126</v>
       </c>
       <c r="B90" s="3">
-        <v>1001302277232</v>
+        <v>1001012566392</v>
       </c>
       <c r="C90" t="s">
-        <v>677</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="B91" s="3">
         <v>1001302277232</v>
@@ -3470,112 +3485,112 @@
       <c r="C91" t="s">
         <v>677</v>
       </c>
-      <c r="E91" t="s">
-        <v>674</v>
-      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>664</v>
       </c>
       <c r="B92" s="3">
-        <v>1001012426268</v>
+        <v>1001302277232</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>677</v>
+      </c>
+      <c r="E92" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B93" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B94" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B95" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B96" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="B98" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="B99" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B101" s="3">
         <v>1001022726303</v>
@@ -3586,7 +3601,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="B102" s="3">
         <v>1001022726303</v>
@@ -3597,65 +3612,62 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
       <c r="B103" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022377070</v>
+        <v>1001022376722</v>
       </c>
       <c r="C107" t="s">
-        <v>607</v>
-      </c>
-      <c r="E107" t="s">
-        <v>622</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B108" s="3">
         <v>1001022377070</v>
@@ -3669,7 +3681,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="B109" s="3">
         <v>1001022377070</v>
@@ -3677,10 +3689,13 @@
       <c r="C109" t="s">
         <v>607</v>
       </c>
+      <c r="E109" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="B110" s="3">
         <v>1001022377070</v>
@@ -3691,29 +3706,29 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>606</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376955</v>
+        <v>1001022377070</v>
       </c>
       <c r="C111" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1001022376955</v>
+      </c>
+      <c r="C112" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1001022246661</v>
-      </c>
-      <c r="C112" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="B113" s="3">
         <v>1001022246661</v>
@@ -3722,177 +3737,174 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B114" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1001022246661</v>
+      </c>
+      <c r="C115" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B116" s="3">
         <v>1001022246713</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B117" s="3">
         <v>1001025166241</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B118" s="3">
         <v>6606</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B119" s="3">
         <v>1001035326217</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B120" s="3">
         <v>1001303636301</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B121" s="3">
         <v>1001303636302</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B122" s="3">
         <v>1001305196215</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B123" s="3">
         <v>1001301876212</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B124" s="3">
         <v>1001301876213</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B125" s="3">
         <v>1001303636302</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B126" s="3">
         <v>6645</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B127" s="3">
         <v>1001225416228</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B128" s="3">
         <v>6225</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B128" s="3">
-        <v>1001022377066</v>
-      </c>
-      <c r="C128" t="s">
-        <v>597</v>
-      </c>
-      <c r="E128" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="B129" s="3">
         <v>1001022377066</v>
@@ -3906,7 +3918,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B130" s="3">
         <v>1001022377066</v>
@@ -3920,32 +3932,32 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B131" s="3">
-        <v>3297</v>
+        <v>1001022377066</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>597</v>
+      </c>
+      <c r="E131" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="B132" s="3">
-        <v>1001022467080</v>
+        <v>3297</v>
       </c>
       <c r="C132" t="s">
-        <v>599</v>
-      </c>
-      <c r="E132" t="s">
-        <v>622</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="B133" s="3">
         <v>1001022467080</v>
@@ -3959,7 +3971,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>641</v>
+        <v>174</v>
       </c>
       <c r="B134" s="3">
         <v>1001022467080</v>
@@ -3967,10 +3979,13 @@
       <c r="C134" t="s">
         <v>599</v>
       </c>
+      <c r="E134" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="B135" s="3">
         <v>1001022467080</v>
@@ -3981,7 +3996,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B136" s="3">
         <v>1001022467080</v>
@@ -3992,40 +4007,40 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>598</v>
       </c>
       <c r="B137" s="3">
-        <v>1001021966602</v>
+        <v>1001022467080</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B138" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="B139" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C139" t="s">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>489</v>
+        <v>268</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
@@ -4036,7 +4051,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4047,7 +4062,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>492</v>
       </c>
       <c r="B142" s="3">
         <v>1001012816341</v>
@@ -4058,54 +4073,51 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B145" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C145" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="B146" s="3">
-        <v>1001022657074</v>
+        <v>5982</v>
       </c>
       <c r="C146" t="s">
-        <v>624</v>
-      </c>
-      <c r="E146" t="s">
-        <v>622</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
       <c r="B147" s="3">
         <v>1001022657074</v>
@@ -4119,7 +4131,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>645</v>
+        <v>456</v>
       </c>
       <c r="B148" s="3">
         <v>1001022657074</v>
@@ -4127,35 +4139,38 @@
       <c r="C148" t="s">
         <v>624</v>
       </c>
+      <c r="E148" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>183</v>
+        <v>645</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022656854</v>
+        <v>1001022657074</v>
       </c>
       <c r="C149" t="s">
-        <v>434</v>
+        <v>624</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B150" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C150" t="s">
-        <v>185</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B151" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C151" t="s">
         <v>185</v>
@@ -4163,21 +4178,21 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B152" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B153" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C153" t="s">
         <v>187</v>
@@ -4185,29 +4200,29 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B154" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3">
         <v>1001100606827</v>
@@ -4218,18 +4233,18 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
       <c r="B157" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="B158" s="3">
         <v>1001100616826</v>
@@ -4240,18 +4255,18 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="B159" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
       <c r="B160" s="3">
         <v>1001100626828</v>
@@ -4262,62 +4277,62 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="B161" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C161" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>558</v>
+        <v>196</v>
       </c>
       <c r="B162" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C162" t="s">
-        <v>559</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
       <c r="B163" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B164" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C164" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>507</v>
+        <v>200</v>
       </c>
       <c r="B165" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>201</v>
+        <v>507</v>
       </c>
       <c r="B166" s="3">
         <v>1001012426220</v>
@@ -4328,227 +4343,227 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B168" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C170" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B171" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C171" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B172" s="3">
-        <v>1001020846751</v>
+        <v>1001022246713</v>
       </c>
       <c r="C172" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B173" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C173" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B174" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B175" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B176" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C176" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B177" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B178" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B179" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C179" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B180" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C180" t="s">
-        <v>410</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B181" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B182" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C182" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B183" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C183" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B184" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C184" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B185" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C185" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>568</v>
+        <v>235</v>
       </c>
       <c r="B186" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C186" t="s">
-        <v>560</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856608</v>
@@ -4559,18 +4574,18 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B188" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>560</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>237</v>
+        <v>569</v>
       </c>
       <c r="B189" s="3">
         <v>1001033856609</v>
@@ -4581,337 +4596,337 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B190" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C190" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B191" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B192" s="3">
-        <v>1001010113248</v>
+        <v>6550</v>
       </c>
       <c r="C192" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="B193" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C193" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="B194" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B195" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B196" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B197" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C197" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B198" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C198" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B200" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C200" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B201" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C201" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B202" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B203" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C203" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B204" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C204" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B205" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C205" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B206" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B207" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C207" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B208" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C208" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B209" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C209" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B210" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C210" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B211" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C211" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B212" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B213" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C213" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B214" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C214" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B215" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C215" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B216" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C216" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B217" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C217" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B218" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C218" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>497</v>
+        <v>289</v>
       </c>
       <c r="B219" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C219" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>291</v>
+        <v>497</v>
       </c>
       <c r="B220" s="3">
         <v>1001215576586</v>
@@ -4922,87 +4937,84 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B221" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C221" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B222" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C222" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C223" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B224" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C224" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B225" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C225" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C226" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025507077</v>
+        <v>1001025166776</v>
       </c>
       <c r="C227" t="s">
-        <v>601</v>
-      </c>
-      <c r="E227" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B228" s="3">
         <v>1001025507077</v>
@@ -5016,7 +5028,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>640</v>
+        <v>305</v>
       </c>
       <c r="B229" s="3">
         <v>1001025507077</v>
@@ -5024,10 +5036,13 @@
       <c r="C229" t="s">
         <v>601</v>
       </c>
+      <c r="E229" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
@@ -5038,7 +5053,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
@@ -5049,18 +5064,18 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>327</v>
+        <v>600</v>
       </c>
       <c r="B232" s="3">
-        <v>1001025546822</v>
+        <v>1001025507077</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B233" s="3">
         <v>1001025546822</v>
@@ -5071,62 +5086,62 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B234" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C234" t="s">
-        <v>552</v>
+        <v>307</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B235" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C235" t="s">
-        <v>307</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B236" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C236" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B237" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="B238" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C238" t="s">
-        <v>392</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>69</v>
+        <v>389</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
@@ -5137,7 +5152,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="B240" s="3">
         <v>1001223296919</v>
@@ -5148,29 +5163,29 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="B241" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>392</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
@@ -5181,62 +5196,62 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B244" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B245" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C245" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B246" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C246" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B247" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C247" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B248" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B249" s="3">
         <v>1001015496769</v>
@@ -5247,84 +5262,84 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B250" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C250" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B251" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C251" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B252" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B253" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C253" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B254" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C254" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C255" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="B256" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C256" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>354</v>
+        <v>478</v>
       </c>
       <c r="B257" s="3">
         <v>1001304096792</v>
@@ -5335,32 +5350,29 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B258" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C258" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B259" s="3">
-        <v>1001303637131</v>
+        <v>1001303636793</v>
       </c>
       <c r="C259" t="s">
-        <v>670</v>
-      </c>
-      <c r="E259" t="s">
-        <v>671</v>
+        <v>366</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>498</v>
+        <v>682</v>
       </c>
       <c r="B260" s="3">
         <v>1001303637131</v>
@@ -5368,13 +5380,10 @@
       <c r="C260" t="s">
         <v>670</v>
       </c>
-      <c r="E260" t="s">
-        <v>671</v>
-      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="B261" s="3">
         <v>1001303637131</v>
@@ -5388,128 +5397,134 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="B262" s="3">
-        <v>1001302596795</v>
+        <v>1001303637131</v>
       </c>
       <c r="C262" t="s">
-        <v>367</v>
+        <v>670</v>
+      </c>
+      <c r="E262" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B263" s="3">
-        <v>1001302596796</v>
+        <v>1001303637131</v>
       </c>
       <c r="C263" t="s">
-        <v>368</v>
+        <v>670</v>
+      </c>
+      <c r="E263" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C264" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C265" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C266" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C267" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C268" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C269" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C270" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>538</v>
+        <v>373</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C271" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C272" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>377</v>
+        <v>538</v>
       </c>
       <c r="B273" s="3">
         <v>1001300456787</v>
@@ -5520,84 +5535,84 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>379</v>
+        <v>553</v>
       </c>
       <c r="B274" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C274" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B275" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C275" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B276" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C276" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B277" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C277" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B278" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C278" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B279" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C279" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="B280" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C280" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B281" s="3">
         <v>1001020836761</v>
@@ -5608,29 +5623,29 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B282" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C282" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="B283" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C283" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B284" s="3">
         <v>1001020846764</v>
@@ -5641,51 +5656,51 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="B285" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C285" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B286" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>353</v>
+        <v>494</v>
       </c>
       <c r="B287" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="B288" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C288" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B289" s="3">
         <v>1001304096791</v>
@@ -5696,95 +5711,95 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="B290" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C290" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B291" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C291" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B292" s="3">
-        <v>1001300516803</v>
+        <v>1001303636793</v>
       </c>
       <c r="C292" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B293" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C293" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B294" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C294" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B295" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C295" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C296" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="B297" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C297" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="B298" s="3">
         <v>1001023696765</v>
@@ -5795,29 +5810,29 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="B299" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C299" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B300" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C300" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696767</v>
@@ -5828,62 +5843,62 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B302" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C302" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B303" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C303" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C304" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="B305" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C305" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="B306" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C306" t="s">
-        <v>429</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B307" s="3">
         <v>1001020846762</v>
@@ -5894,57 +5909,51 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>130</v>
+        <v>471</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C308" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="B309" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C309" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C310" t="s">
-        <v>603</v>
-      </c>
-      <c r="E310" t="s">
-        <v>622</v>
+        <v>432</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="B311" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C311" t="s">
-        <v>603</v>
-      </c>
-      <c r="E311" t="s">
-        <v>622</v>
+        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="B312" s="3">
         <v>1001022657075</v>
@@ -5952,10 +5961,13 @@
       <c r="C312" t="s">
         <v>603</v>
       </c>
+      <c r="E312" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657075</v>
@@ -5963,43 +5975,46 @@
       <c r="C313" t="s">
         <v>603</v>
       </c>
+      <c r="E313" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022656948</v>
+        <v>1001022657075</v>
       </c>
       <c r="C314" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B315" s="3">
-        <v>1001022657073</v>
+        <v>1001022657075</v>
       </c>
       <c r="C315" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>630</v>
+        <v>431</v>
       </c>
       <c r="B316" s="3">
-        <v>1001022657073</v>
+        <v>1001022656948</v>
       </c>
       <c r="C316" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>437</v>
+        <v>608</v>
       </c>
       <c r="B317" s="3">
         <v>1001022657073</v>
@@ -6007,35 +6022,35 @@
       <c r="C317" t="s">
         <v>609</v>
       </c>
-      <c r="E317" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>454</v>
+        <v>630</v>
       </c>
       <c r="B318" s="3">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="C318" t="s">
-        <v>439</v>
+        <v>609</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="B319" s="3">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="C319" t="s">
-        <v>439</v>
+        <v>609</v>
+      </c>
+      <c r="E319" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B320" s="3">
         <v>1001020836759</v>
@@ -6046,84 +6061,84 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B321" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C321" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B322" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C322" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B323" s="3">
-        <v>1001093345495</v>
+        <v>1001023856870</v>
       </c>
       <c r="C323" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="B324" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C324" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B325" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C325" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>172</v>
+        <v>486</v>
       </c>
       <c r="B326" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C326" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="B327" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C327" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>484</v>
+        <v>172</v>
       </c>
       <c r="B328" s="3">
         <v>1001034065698</v>
@@ -6134,7 +6149,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>462</v>
+        <v>191</v>
       </c>
       <c r="B329" s="3">
         <v>1001034065698</v>
@@ -6145,51 +6160,51 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B330" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C330" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B331" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C331" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="B332" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C332" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B333" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C333" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B334" s="3">
         <v>1001025176768</v>
@@ -6200,29 +6215,29 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="B335" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C335" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B336" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C336" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B337" s="3">
         <v>1001025486770</v>
@@ -6233,29 +6248,29 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>214</v>
+        <v>474</v>
       </c>
       <c r="B338" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C338" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B339" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C339" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>467</v>
+        <v>214</v>
       </c>
       <c r="B340" s="3">
         <v>1001012816340</v>
@@ -6266,29 +6281,29 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="B341" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C341" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B342" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C342" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>485</v>
+        <v>314</v>
       </c>
       <c r="B343" s="3">
         <v>1001203146834</v>
@@ -6299,7 +6314,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B344" s="3">
         <v>1001203146834</v>
@@ -6310,73 +6325,73 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B345" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C345" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B346" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C346" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B347" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C347" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B348" s="3">
-        <v>1001214196459</v>
+        <v>1001022556837</v>
       </c>
       <c r="C348" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="B349" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C349" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="B350" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C350" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="B351" s="3">
         <v>1001092436495</v>
@@ -6387,51 +6402,51 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="B352" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C352" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B353" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C353" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B354" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C354" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="B355" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C355" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B356" s="3">
         <v>1001010016324</v>
@@ -6442,29 +6457,29 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="B357" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C357" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="B358" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C358" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B359" s="3">
         <v>1001025766909</v>
@@ -6475,51 +6490,51 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B360" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C360" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B361" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C361" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B362" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C362" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="B363" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C363" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="B364" s="3">
         <v>1001012596802</v>
@@ -6530,29 +6545,29 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B365" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C365" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="B366" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C366" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596801</v>
@@ -6563,206 +6578,200 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="B368" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C368" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B369" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C369" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B370" s="3">
-        <v>1001083424691</v>
+        <v>1001062353684</v>
       </c>
       <c r="C370" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B371" s="3">
-        <v>1001190765679</v>
+        <v>1001010014555</v>
       </c>
       <c r="C371" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>673</v>
+        <v>524</v>
       </c>
       <c r="B372" s="3">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="C372" t="s">
-        <v>672</v>
+        <v>525</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B373" s="3">
-        <v>1001085637187</v>
+        <v>1001190765679</v>
       </c>
       <c r="C373" t="s">
-        <v>672</v>
-      </c>
-      <c r="E373" t="s">
-        <v>671</v>
+        <v>527</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>529</v>
+        <v>673</v>
       </c>
       <c r="B374" s="3">
-        <v>1001020836253</v>
+        <v>1001085637187</v>
       </c>
       <c r="C374" t="s">
-        <v>530</v>
+        <v>672</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B375" s="3">
-        <v>1001084226492</v>
+        <v>1001085637187</v>
       </c>
       <c r="C375" t="s">
-        <v>532</v>
+        <v>672</v>
+      </c>
+      <c r="E375" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>631</v>
+        <v>529</v>
       </c>
       <c r="B376" s="3">
-        <v>1001223297092</v>
+        <v>1001020836253</v>
       </c>
       <c r="C376" t="s">
-        <v>621</v>
+        <v>530</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B377" s="3">
-        <v>1001223297092</v>
+        <v>1001084226492</v>
       </c>
       <c r="C377" t="s">
-        <v>621</v>
-      </c>
-      <c r="E377" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>535</v>
+        <v>631</v>
       </c>
       <c r="B378" s="3">
-        <v>1001053944786</v>
+        <v>1001223297092</v>
       </c>
       <c r="C378" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B379" s="3">
-        <v>1001010016839</v>
+        <v>1001223297092</v>
       </c>
       <c r="C379" t="s">
-        <v>540</v>
+        <v>621</v>
+      </c>
+      <c r="E379" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B380" s="3">
-        <v>1001023857038</v>
+        <v>1001053944786</v>
       </c>
       <c r="C380" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B381" s="3">
-        <v>1001040434903</v>
+        <v>1001010016839</v>
       </c>
       <c r="C381" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B382" s="3">
-        <v>1001080216842</v>
+        <v>1001023857038</v>
       </c>
       <c r="C382" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B383" s="3">
-        <v>1001022467082</v>
+        <v>1001040434903</v>
       </c>
       <c r="C383" t="s">
-        <v>605</v>
-      </c>
-      <c r="E383" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B384" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C384" t="s">
-        <v>605</v>
-      </c>
-      <c r="E384" t="s">
-        <v>622</v>
+        <v>551</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>642</v>
+        <v>563</v>
       </c>
       <c r="B385" s="3">
         <v>1001022467082</v>
@@ -6770,10 +6779,13 @@
       <c r="C385" t="s">
         <v>605</v>
       </c>
+      <c r="E385" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>620</v>
+        <v>566</v>
       </c>
       <c r="B386" s="3">
         <v>1001022467082</v>
@@ -6781,10 +6793,13 @@
       <c r="C386" t="s">
         <v>605</v>
       </c>
+      <c r="E386" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
@@ -6795,145 +6810,145 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B388" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C388" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="B389" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C389" t="s">
-        <v>623</v>
-      </c>
-      <c r="E389" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>574</v>
+        <v>628</v>
       </c>
       <c r="B390" s="3">
-        <v>1001062353680</v>
+        <v>1001035277059</v>
       </c>
       <c r="C390" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B391" s="3">
-        <v>1001061971146</v>
+        <v>1001035277059</v>
       </c>
       <c r="C391" t="s">
-        <v>577</v>
+        <v>623</v>
+      </c>
+      <c r="E391" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B392" s="3">
-        <v>1001225636201</v>
+        <v>1001062353680</v>
       </c>
       <c r="C392" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B393" s="3">
-        <v>1001020836724</v>
+        <v>1001061971146</v>
       </c>
       <c r="C393" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B394" s="3">
-        <v>1001095227235</v>
+        <v>1001225636201</v>
       </c>
       <c r="C394" t="s">
-        <v>675</v>
-      </c>
-      <c r="E394" t="s">
-        <v>674</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B395" s="3">
-        <v>1001023857038</v>
+        <v>1001020836724</v>
       </c>
       <c r="C395" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
       <c r="B396" s="3">
-        <v>1001025027040</v>
+        <v>1001095227235</v>
       </c>
       <c r="C396" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B397" s="3">
-        <v>1001223297103</v>
+        <v>1001095227235</v>
       </c>
       <c r="C397" t="s">
-        <v>588</v>
+        <v>675</v>
+      </c>
+      <c r="E397" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B398" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C398" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>646</v>
+        <v>585</v>
       </c>
       <c r="B399" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C399" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B400" s="3">
         <v>1001223297103</v>
@@ -6944,98 +6959,95 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B401" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C401" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>590</v>
+        <v>646</v>
       </c>
       <c r="B402" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C402" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="B403" s="3">
-        <v>1001035937001</v>
+        <v>1001223297103</v>
       </c>
       <c r="C403" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B404" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C404" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B405" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C405" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>463</v>
+        <v>615</v>
       </c>
       <c r="B406" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C406" t="s">
-        <v>595</v>
-      </c>
-      <c r="E406" t="s">
-        <v>647</v>
+        <v>593</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="B407" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C407" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B408" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C408" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>594</v>
+        <v>463</v>
       </c>
       <c r="B409" s="3">
         <v>1001084217090</v>
@@ -7043,207 +7055,254 @@
       <c r="C409" t="s">
         <v>595</v>
       </c>
+      <c r="E409" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="B410" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C410" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B411" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C411" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B412" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C412" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="B413" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C413" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="B414" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C414" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="B415" s="3">
-        <v>1001010027125</v>
+        <v>1001022377066</v>
       </c>
       <c r="C415" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="B416" s="3">
-        <v>1001223297053</v>
+        <v>1001010027126</v>
       </c>
       <c r="C416" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="B417" s="3">
-        <v>1001093316411</v>
+        <v>1001010027126</v>
       </c>
       <c r="C417" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B418" s="3">
-        <v>1001025526962</v>
+        <v>1001010027125</v>
       </c>
       <c r="C418" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B419" s="3">
-        <v>1001025886987</v>
+        <v>1001223297053</v>
       </c>
       <c r="C419" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B420" s="3">
-        <v>1001204447052</v>
+        <v>1001093316411</v>
       </c>
       <c r="C420" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="B421" s="3">
-        <v>1001084227087</v>
+        <v>1001025526962</v>
       </c>
       <c r="C421" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="B422" s="3">
-        <v>1001203207105</v>
+        <v>1001025886987</v>
       </c>
       <c r="C422" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B423" s="3">
-        <v>1001205447106</v>
+        <v>1001204447052</v>
       </c>
       <c r="C423" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B424" s="3">
-        <v>1001205467107</v>
+        <v>1001084227087</v>
       </c>
       <c r="C424" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B425" s="3">
-        <v>1001015676877</v>
+        <v>1001203207105</v>
       </c>
       <c r="C425" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B426" s="3">
-        <v>1001016366888</v>
+        <v>1001205447106</v>
       </c>
       <c r="C426" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B427" s="3">
+        <v>1001205467107</v>
+      </c>
+      <c r="C427" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B428" s="3">
+        <v>1001015676877</v>
+      </c>
+      <c r="C428" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B429" s="3">
+        <v>1001016366888</v>
+      </c>
+      <c r="C429" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B430" s="3">
         <v>1001303107241</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C430" t="s">
         <v>680</v>
       </c>
     </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B431" s="3">
+        <v>1001013957231</v>
+      </c>
+      <c r="C431" t="s">
+        <v>686</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C427" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
